--- a/bi/minha_carteira.xlsx
+++ b/bi/minha_carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Desktop\GITHUB\cotacaopython\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A654E622-6E7F-49E9-9C9D-A7DD4685ACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A082654-FA37-4F2E-8DA4-D5434B71358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="3750" windowWidth="16020" windowHeight="15870" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>acoes</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>lucro_em_%</t>
+  </si>
+  <si>
+    <t>rzag11</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>10.01</v>
+        <v>10.06</v>
       </c>
       <c r="C2">
         <v>0.12</v>
@@ -483,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>9.2200000000000006</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C4">
         <v>0.12</v>
@@ -494,16 +497,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>97.09</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="C5">
-        <v>0.72</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/bi/minha_carteira.xlsx
+++ b/bi/minha_carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Desktop\GITHUB\cotacaopython\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A082654-FA37-4F2E-8DA4-D5434B71358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69117A96-1BE8-4D86-9630-87481DEB7A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="3750" windowWidth="16020" windowHeight="15870" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
+    <workbookView xWindow="11200" yWindow="4260" windowWidth="14480" windowHeight="15870" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>acoes</t>
   </si>
@@ -72,14 +72,25 @@
   </si>
   <si>
     <t>rzag11</t>
+  </si>
+  <si>
+    <t>bime11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F918FA-71C0-496A-8C75-589E0000FF18}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,7 +489,7 @@
       <c r="C3">
         <v>0.13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -492,7 +504,7 @@
         <v>0.12</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -506,11 +518,57 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>9.32</v>
+      </c>
+      <c r="C6">
+        <v>0.16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2A7C1C91-98A7-4074-AA7E-94FB8934DDAF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2A7C1C91-98A7-4074-AA7E-94FB8934DDAF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/bi/minha_carteira.xlsx
+++ b/bi/minha_carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Desktop\GITHUB\cotacaopython\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69117A96-1BE8-4D86-9630-87481DEB7A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD9FDED-429C-4C60-939D-CFB334F497FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="4260" windowWidth="14480" windowHeight="15870" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F918FA-71C0-496A-8C75-589E0000FF18}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -534,6 +535,9 @@
       <c r="D6" s="1">
         <v>31</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">

--- a/bi/minha_carteira.xlsx
+++ b/bi/minha_carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Desktop\GITHUB\cotacaopython\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD9FDED-429C-4C60-939D-CFB334F497FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D1C90D-817E-4E97-BB53-E1D0CAC56B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
+    <workbookView xWindow="1740" yWindow="2940" windowWidth="14480" windowHeight="15870" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,7 +505,7 @@
         <v>0.12</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -519,7 +519,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">

--- a/bi/minha_carteira.xlsx
+++ b/bi/minha_carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Desktop\GITHUB\cotacaopython\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D1C90D-817E-4E97-BB53-E1D0CAC56B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E286E5-2753-4F0B-9C91-223D882045AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="2940" windowWidth="14480" windowHeight="15870" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
+    <workbookView xWindow="14650" yWindow="3910" windowWidth="14480" windowHeight="15870" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/bi/minha_carteira.xlsx
+++ b/bi/minha_carteira.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Desktop\GITHUB\cotacaopython\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E286E5-2753-4F0B-9C91-223D882045AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A05F4-9069-48C0-9B4D-F76C96CF1469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14650" yWindow="3910" windowWidth="14480" windowHeight="15870" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
+    <workbookView xWindow="17730" yWindow="2210" windowWidth="15290" windowHeight="15870" activeTab="1" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="32">
   <si>
     <t>acoes</t>
   </si>
@@ -45,9 +46,6 @@
   </si>
   <si>
     <t>rendimento</t>
-  </si>
-  <si>
-    <t>xplg11</t>
   </si>
   <si>
     <t>mxrf11</t>
@@ -76,12 +74,72 @@
   <si>
     <t>bime11</t>
   </si>
+  <si>
+    <t>quantidade_necessaria</t>
+  </si>
+  <si>
+    <t>valor_investido</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>setembro</t>
+  </si>
+  <si>
+    <t>outubro</t>
+  </si>
+  <si>
+    <t>novembro</t>
+  </si>
+  <si>
+    <t>dezembro</t>
+  </si>
+  <si>
+    <t>reenvestindo</t>
+  </si>
+  <si>
+    <t>do_bolso</t>
+  </si>
+  <si>
+    <t>sobra</t>
+  </si>
+  <si>
+    <t>renda_mes</t>
+  </si>
+  <si>
+    <t>janeiro</t>
+  </si>
+  <si>
+    <t>fevereiro</t>
+  </si>
+  <si>
+    <t>março</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>maio</t>
+  </si>
+  <si>
+    <t>junho</t>
+  </si>
+  <si>
+    <t>julho</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +151,19 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,16 +186,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,6 +211,969 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>renda_mes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>agosto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>setembro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>outubro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>novembro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dezembro</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>janeiro</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fevereiro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A152-41C1-9404-1AB21B27B001}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="39918543"/>
+        <c:axId val="39924367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39918543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39924367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39924367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39918543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C5E21B-DAF3-D344-1316-6466BD7D1578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F918FA-71C0-496A-8C75-589E0000FF18}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,7 +1489,7 @@
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,26 +1500,26 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10.06</v>
       </c>
       <c r="C2">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D2">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>9.68</v>
@@ -491,26 +1528,26 @@
         <v>0.13</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>9.3000000000000007</v>
       </c>
       <c r="C4">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>10.220000000000001</v>
@@ -522,9 +1559,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>9.32</v>
@@ -535,9 +1572,7 @@
       <c r="D6" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
@@ -578,142 +1613,2920 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2619C85-7CCB-457A-931C-AF4C1404E312}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10.06</v>
+      </c>
+      <c r="C3">
+        <v>0.11</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <f>B3*D3</f>
+        <v>271.62</v>
+      </c>
+      <c r="F3">
+        <f>C3*D3</f>
+        <v>2.97</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G6" si="0">C3/B3</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>E9+E19+E29+E39+E49+E59+E69+E79+E89+E99+E109+E119</f>
+        <v>13455.760000000002</v>
+      </c>
+      <c r="M3">
+        <f>E9+I19+I29+I39+I49+I59+I69+I79+I89+I99+I109+I119</f>
+        <v>12481.550000000001</v>
+      </c>
+      <c r="N3">
+        <f>L3-M3</f>
+        <v>974.21000000000095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>9.68</v>
+      </c>
+      <c r="C4">
+        <v>0.13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E7" si="1">B4*D4</f>
+        <v>29.04</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F7" si="2">C4*D4</f>
+        <v>0.39</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C5">
+        <v>0.11</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>139.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.65</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>306.60000000000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>9.32</v>
+      </c>
+      <c r="C7">
+        <v>0.16</v>
+      </c>
+      <c r="D7" s="3">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>288.92</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>4.96</v>
+      </c>
+      <c r="G7" s="2">
+        <f>C7/B7</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f>SUM(E3:E8)</f>
+        <v>1035.68</v>
+      </c>
+      <c r="F9">
+        <f>SUM(F3:F8)</f>
+        <v>14.170000000000002</v>
+      </c>
+      <c r="I9">
+        <f>E9</f>
+        <v>1035.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>10.06</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C16" si="3">C3</f>
+        <v>0.11</v>
+      </c>
+      <c r="D13">
+        <f>D3+I13</f>
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <f>(B13*D13)-(B3*D3)</f>
+        <v>181.08000000000004</v>
+      </c>
+      <c r="F13">
+        <f>C13*D13</f>
+        <v>4.95</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13:G16" si="4">C13/B13</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>9.68</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="D14">
+        <f>D4+I14</f>
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E17" si="5">(B14*D14)-(B4*D4)</f>
+        <v>58.080000000000005</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F17" si="6">C14*D14</f>
+        <v>1.17</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="D15">
+        <f>D5+I15</f>
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>260.40000000000003</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D16">
+        <f>D6+I16</f>
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>286.15999999999997</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>9.32</v>
+      </c>
+      <c r="C17">
+        <v>0.16</v>
+      </c>
+      <c r="D17">
+        <f>D7+I17</f>
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>279.59999999999997</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>9.76</v>
+      </c>
+      <c r="G17" s="2">
+        <f>C17/B17</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f>SUM(E13:E18)</f>
+        <v>1065.32</v>
+      </c>
+      <c r="F19">
+        <f>SUM(F13:F18)</f>
+        <v>28.730000000000004</v>
+      </c>
+      <c r="I19">
+        <f>E19-F9</f>
+        <v>1051.1499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>10.06</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C26" si="7">C13</f>
+        <v>0.11</v>
+      </c>
+      <c r="D23">
+        <f>D13+I23</f>
+        <v>65</v>
+      </c>
+      <c r="E23">
+        <f>(B23*D23)-(B13*D13)</f>
+        <v>201.19999999999993</v>
+      </c>
+      <c r="F23">
+        <f>C23*D23</f>
+        <v>7.15</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" ref="G23:G26" si="8">C23/B23</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>9.68</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>0.13</v>
+      </c>
+      <c r="D24">
+        <f>D14+I24</f>
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E27" si="9">(B24*D24)-(B14*D14)</f>
+        <v>96.799999999999983</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F27" si="10">C24*D24</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>0.11</v>
+      </c>
+      <c r="D25">
+        <f>D15+I25</f>
+        <v>63</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="9"/>
+        <v>186.00000000000006</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="10"/>
+        <v>6.93</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="7"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D26">
+        <f>D16+I26</f>
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="9"/>
+        <v>296.38000000000011</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="10"/>
+        <v>12.180000000000001</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>9.32</v>
+      </c>
+      <c r="C27">
+        <f>C17</f>
+        <v>0.16</v>
+      </c>
+      <c r="D27">
+        <f>D17+I27</f>
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="9"/>
+        <v>307.56000000000006</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>15.040000000000001</v>
+      </c>
+      <c r="G27" s="2">
+        <f>C27/B27</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f>SUM(E23:E28)</f>
+        <v>1087.94</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F23:F28)</f>
+        <v>43.77</v>
+      </c>
+      <c r="I29">
+        <f>E29-F19</f>
+        <v>1059.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>10.06</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C36" si="11">C23</f>
+        <v>0.11</v>
+      </c>
+      <c r="D33">
+        <f>D23+I33</f>
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <f>(B33*D33)-(B23*D23)</f>
+        <v>201.20000000000005</v>
+      </c>
+      <c r="F33">
+        <f>C33*D33</f>
+        <v>9.35</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" ref="G33:G36" si="12">C33/B33</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>9.68</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="11"/>
+        <v>0.13</v>
+      </c>
+      <c r="D34">
+        <f>D24+I34</f>
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E37" si="13">(B34*D34)-(B24*D24)</f>
+        <v>106.47999999999999</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F37" si="14">C34*D34</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="11"/>
+        <v>0.11</v>
+      </c>
+      <c r="D35">
+        <f>D25+I35</f>
+        <v>84</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="13"/>
+        <v>195.29999999999995</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="14"/>
+        <v>9.24</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="11"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D36">
+        <f>D26+I36</f>
+        <v>119</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="13"/>
+        <v>327.03999999999996</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="14"/>
+        <v>16.66</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>9.32</v>
+      </c>
+      <c r="C37">
+        <f>C27</f>
+        <v>0.16</v>
+      </c>
+      <c r="D37">
+        <f>D27+I37</f>
+        <v>121</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="13"/>
+        <v>251.64</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>19.36</v>
+      </c>
+      <c r="G37" s="2">
+        <f>C37/B37</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <f>SUM(E33:E38)</f>
+        <v>1081.6599999999999</v>
+      </c>
+      <c r="F39">
+        <f>SUM(F33:F38)</f>
+        <v>58.510000000000005</v>
+      </c>
+      <c r="I39">
+        <f>E39-F29</f>
+        <v>1037.8899999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>10.06</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:C46" si="15">C33</f>
+        <v>0.11</v>
+      </c>
+      <c r="D43">
+        <f>D33+I43</f>
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <f>(B43*D43)-(B33*D33)</f>
+        <v>150.89999999999998</v>
+      </c>
+      <c r="F43">
+        <f>C43*D43</f>
+        <v>11</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" ref="G43:G46" si="16">C43/B43</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>9.68</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="15"/>
+        <v>0.13</v>
+      </c>
+      <c r="D44">
+        <f>D34+I44</f>
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:E47" si="17">(B44*D44)-(B34*D34)</f>
+        <v>677.6</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F47" si="18">C44*D44</f>
+        <v>13</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="16"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="15"/>
+        <v>0.11</v>
+      </c>
+      <c r="D45">
+        <f>D35+I45</f>
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="17"/>
+        <v>148.80000000000007</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="16"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="15"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D46">
+        <f>D36+I46</f>
+        <v>119</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="18"/>
+        <v>16.66</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="16"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>9.32</v>
+      </c>
+      <c r="C47">
+        <f>C37</f>
+        <v>0.16</v>
+      </c>
+      <c r="D47">
+        <f>D37+I47</f>
+        <v>131</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="17"/>
+        <v>93.200000000000045</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="18"/>
+        <v>20.96</v>
+      </c>
+      <c r="G47" s="2">
+        <f>C47/B47</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <f>SUM(E43:E48)</f>
+        <v>1070.5</v>
+      </c>
+      <c r="F49">
+        <f>SUM(F43:F48)</f>
+        <v>72.62</v>
+      </c>
+      <c r="I49">
+        <f>E49-F39</f>
+        <v>1011.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>10.06</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="19">C43</f>
+        <v>0.11</v>
+      </c>
+      <c r="D53">
+        <f>D43+I53</f>
+        <v>120</v>
+      </c>
+      <c r="E53">
+        <f>(B53*D53)-(B43*D43)</f>
+        <v>201.20000000000005</v>
+      </c>
+      <c r="F53">
+        <f>C53*D53</f>
+        <v>13.2</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" ref="G53:G56" si="20">C53/B53</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>9.68</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="19"/>
+        <v>0.13</v>
+      </c>
+      <c r="D54">
+        <f>D44+I54</f>
+        <v>112</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:E57" si="21">(B54*D54)-(B44*D44)</f>
+        <v>116.15999999999985</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54:F57" si="22">C54*D54</f>
+        <v>14.56</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="20"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="19"/>
+        <v>0.11</v>
+      </c>
+      <c r="D55">
+        <f>D45+I55</f>
+        <v>125</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="21"/>
+        <v>232.49999999999989</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="22"/>
+        <v>13.75</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="20"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="19"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D56">
+        <f>D46+I56</f>
+        <v>149</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="21"/>
+        <v>306.60000000000014</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="22"/>
+        <v>20.860000000000003</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="20"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>9.32</v>
+      </c>
+      <c r="C57">
+        <f>C47</f>
+        <v>0.16</v>
+      </c>
+      <c r="D57">
+        <f>D47+I57</f>
+        <v>158</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="21"/>
+        <v>251.63999999999987</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="22"/>
+        <v>25.28</v>
+      </c>
+      <c r="G57" s="2">
+        <f>C57/B57</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <f>SUM(E53:E58)</f>
+        <v>1108.0999999999999</v>
+      </c>
+      <c r="F59">
+        <f>SUM(F53:F58)</f>
+        <v>87.65</v>
+      </c>
+      <c r="I59">
+        <f>E59-F49</f>
+        <v>1035.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>10.06</v>
+      </c>
+      <c r="C63">
+        <f>C53</f>
+        <v>0.11</v>
+      </c>
+      <c r="D63">
+        <f>D53+I63</f>
+        <v>140</v>
+      </c>
+      <c r="E63">
+        <f>(B63*D63)-(B53*D53)</f>
+        <v>201.20000000000005</v>
+      </c>
+      <c r="F63">
+        <f>C63*D63</f>
+        <v>15.4</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" ref="G63:G66" si="23">C63/B63</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>9.68</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C63:C66" si="24">C54</f>
+        <v>0.13</v>
+      </c>
+      <c r="D64">
+        <f>D54+I64</f>
+        <v>122</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64:E67" si="25">(B64*D64)-(B54*D54)</f>
+        <v>96.800000000000182</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64:F67" si="26">C64*D64</f>
+        <v>15.860000000000001</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="23"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="24"/>
+        <v>0.11</v>
+      </c>
+      <c r="D65">
+        <f>D55+I65</f>
+        <v>150</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="25"/>
+        <v>232.5</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="26"/>
+        <v>16.5</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="23"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="24"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D66">
+        <f>D56+I66</f>
+        <v>178</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="25"/>
+        <v>296.37999999999988</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="26"/>
+        <v>24.92</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="23"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>9.32</v>
+      </c>
+      <c r="C67">
+        <f>C57</f>
+        <v>0.16</v>
+      </c>
+      <c r="D67">
+        <f>D57+I67</f>
+        <v>188</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="25"/>
+        <v>279.60000000000014</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="26"/>
+        <v>30.080000000000002</v>
+      </c>
+      <c r="G67" s="2">
+        <f>C67/B67</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <f>SUM(E63:E68)</f>
+        <v>1106.4800000000002</v>
+      </c>
+      <c r="F69">
+        <f>SUM(F63:F68)</f>
+        <v>102.76</v>
+      </c>
+      <c r="I69">
+        <f>E69-F59</f>
+        <v>1018.8300000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>10.06</v>
+      </c>
+      <c r="C73">
+        <f>C63</f>
+        <v>0.11</v>
+      </c>
+      <c r="D73">
+        <f>D63+I73</f>
+        <v>170</v>
+      </c>
+      <c r="E73">
+        <f>(B73*D73)-(B63*D63)</f>
+        <v>301.79999999999995</v>
+      </c>
+      <c r="F73">
+        <f>C73*D73</f>
+        <v>18.7</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" ref="G73:G76" si="27">C73/B73</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>9.68</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ref="C73:C76" si="28">C64</f>
+        <v>0.13</v>
+      </c>
+      <c r="D74">
+        <f>D64+I74</f>
+        <v>150</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:E77" si="29">(B74*D74)-(B64*D64)</f>
+        <v>271.03999999999996</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ref="F74:F77" si="30">C74*D74</f>
+        <v>19.5</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="27"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I74">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="28"/>
+        <v>0.11</v>
+      </c>
+      <c r="D75">
+        <f>D65+I75</f>
+        <v>180</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="29"/>
+        <v>279.00000000000023</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="30"/>
+        <v>19.8</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="27"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="28"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D76">
+        <f>D66+I76</f>
+        <v>199</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="29"/>
+        <v>214.62000000000012</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="30"/>
+        <v>27.860000000000003</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="27"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>9.32</v>
+      </c>
+      <c r="C77">
+        <f>C67</f>
+        <v>0.16</v>
+      </c>
+      <c r="D77">
+        <f>D67+I77</f>
+        <v>199</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="29"/>
+        <v>102.51999999999998</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="30"/>
+        <v>31.84</v>
+      </c>
+      <c r="G77" s="2">
+        <f>C77/B77</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <f>SUM(E73:E78)</f>
+        <v>1168.9800000000002</v>
+      </c>
+      <c r="F79">
+        <f>SUM(F73:F78)</f>
+        <v>117.7</v>
+      </c>
+      <c r="I79">
+        <f>E79-F69</f>
+        <v>1066.2200000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" ref="C82:C86" si="31">C72</f>
+        <v>rendimento</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>10.06</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="31"/>
+        <v>0.11</v>
+      </c>
+      <c r="D83">
+        <f>D73+I83</f>
+        <v>170</v>
+      </c>
+      <c r="E83">
+        <f>(B83*D83)-(B73*D73)</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f>C83*D83</f>
+        <v>18.7</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" ref="G83:G86" si="32">C83/B83</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>9.68</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="31"/>
+        <v>0.13</v>
+      </c>
+      <c r="D84">
+        <f>D74+I84</f>
+        <v>180</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84:E87" si="33">(B84*D84)-(B74*D74)</f>
+        <v>290.39999999999986</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84:F87" si="34">C84*D84</f>
+        <v>23.400000000000002</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="32"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="31"/>
+        <v>0.11</v>
+      </c>
+      <c r="D85">
+        <f>D75+I85</f>
+        <v>212</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="33"/>
+        <v>297.59999999999991</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="34"/>
+        <v>23.32</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="32"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I85">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="31"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D86">
+        <f>D76+I86</f>
+        <v>227</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="33"/>
+        <v>286.15999999999985</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="34"/>
+        <v>31.780000000000005</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="32"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I86">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87">
+        <v>9.32</v>
+      </c>
+      <c r="C87">
+        <f>C77</f>
+        <v>0.16</v>
+      </c>
+      <c r="D87">
+        <f>D77+I87</f>
+        <v>230</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="33"/>
+        <v>288.91999999999985</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="34"/>
+        <v>36.800000000000004</v>
+      </c>
+      <c r="G87" s="2">
+        <f>C87/B87</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I87">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <f>SUM(E83:E88)</f>
+        <v>1163.0799999999995</v>
+      </c>
+      <c r="F89">
+        <f>SUM(F83:F88)</f>
+        <v>134</v>
+      </c>
+      <c r="I89">
+        <f>E89-F79</f>
+        <v>1045.3799999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>10.06</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:C96" si="35">C83</f>
+        <v>0.11</v>
+      </c>
+      <c r="D93">
+        <f>D83+I93</f>
+        <v>200</v>
+      </c>
+      <c r="E93">
+        <f>(B93*D93)-(B83*D83)</f>
+        <v>301.79999999999995</v>
+      </c>
+      <c r="F93">
+        <f>C93*D93</f>
+        <v>22</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" ref="G93:G96" si="36">C93/B93</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>9.68</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="35"/>
+        <v>0.13</v>
+      </c>
+      <c r="D94">
+        <f>D84+I94</f>
+        <v>200</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ref="E94:E97" si="37">(B94*D94)-(B84*D84)</f>
+        <v>193.60000000000014</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ref="F94:F97" si="38">C94*D94</f>
+        <v>26</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="36"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="35"/>
+        <v>0.11</v>
+      </c>
+      <c r="D95">
+        <f>D85+I95</f>
+        <v>242</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="37"/>
+        <v>279.00000000000023</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="38"/>
+        <v>26.62</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="36"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="35"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D96">
+        <f>D86+I96</f>
+        <v>249</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="37"/>
+        <v>224.84000000000015</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="38"/>
+        <v>34.860000000000007</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="36"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I96">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>9.32</v>
+      </c>
+      <c r="C97">
+        <f>C87</f>
+        <v>0.16</v>
+      </c>
+      <c r="D97">
+        <f>D87+I97</f>
+        <v>249</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="37"/>
+        <v>177.08000000000038</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="38"/>
+        <v>39.840000000000003</v>
+      </c>
+      <c r="G97" s="2">
+        <f>C97/B97</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <f>SUM(E93:E98)</f>
+        <v>1176.3200000000008</v>
+      </c>
+      <c r="F99">
+        <f>SUM(F93:F98)</f>
+        <v>149.32000000000002</v>
+      </c>
+      <c r="I99">
+        <f>E99-F89</f>
+        <v>1042.3200000000008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>10.06</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:C106" si="39">C93</f>
+        <v>0.11</v>
+      </c>
+      <c r="D103">
+        <f>D93+I103</f>
+        <v>230</v>
+      </c>
+      <c r="E103">
+        <f>(B103*D103)-(B93*D93)</f>
+        <v>301.80000000000018</v>
+      </c>
+      <c r="F103">
+        <f>C103*D103</f>
+        <v>25.3</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" ref="G103:G106" si="40">C103/B103</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I103">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>9.68</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="39"/>
+        <v>0.13</v>
+      </c>
+      <c r="D104">
+        <f>D94+I104</f>
+        <v>220</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ref="E104:E107" si="41">(B104*D104)-(B94*D94)</f>
+        <v>193.59999999999991</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ref="F104:F107" si="42">C104*D104</f>
+        <v>28.6</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="40"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="39"/>
+        <v>0.11</v>
+      </c>
+      <c r="D105">
+        <f>D95+I105</f>
+        <v>272</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="41"/>
+        <v>279</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="42"/>
+        <v>29.92</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="40"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="39"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D106">
+        <f>D96+I106</f>
+        <v>270</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="41"/>
+        <v>214.61999999999989</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="42"/>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="40"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I106">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <v>9.32</v>
+      </c>
+      <c r="C107">
+        <f>C97</f>
+        <v>0.16</v>
+      </c>
+      <c r="D107">
+        <f>D97+I107</f>
+        <v>271</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="41"/>
+        <v>205.03999999999996</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="42"/>
+        <v>43.36</v>
+      </c>
+      <c r="G107" s="2">
+        <f>C107/B107</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I107">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <f>SUM(E103:E108)</f>
+        <v>1194.06</v>
+      </c>
+      <c r="F109">
+        <f>SUM(F103:F108)</f>
+        <v>164.98000000000002</v>
+      </c>
+      <c r="I109">
+        <f>E109-F99</f>
+        <v>1044.74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>10.06</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ref="C113:C116" si="43">C103</f>
+        <v>0.11</v>
+      </c>
+      <c r="D113">
+        <f>D103+I113</f>
+        <v>260</v>
+      </c>
+      <c r="E113">
+        <f>(B113*D113)-(B103*D103)</f>
+        <v>301.79999999999973</v>
+      </c>
+      <c r="F113">
+        <f>C113*D113</f>
+        <v>28.6</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" ref="G113:G116" si="44">C113/B113</f>
+        <v>1.0934393638170973E-2</v>
+      </c>
+      <c r="I113">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114">
+        <v>9.68</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="43"/>
+        <v>0.13</v>
+      </c>
+      <c r="D114">
+        <f>D104+I114</f>
+        <v>250</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ref="E114:E117" si="45">(B114*D114)-(B104*D104)</f>
+        <v>290.40000000000009</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ref="F114:F117" si="46">C114*D114</f>
+        <v>32.5</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="44"/>
+        <v>1.3429752066115703E-2</v>
+      </c>
+      <c r="I114">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="43"/>
+        <v>0.11</v>
+      </c>
+      <c r="D115">
+        <f>D105+I115</f>
+        <v>303</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="45"/>
+        <v>288.29999999999973</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="46"/>
+        <v>33.33</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="44"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="I115">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="43"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D116">
+        <f>D106+I116</f>
+        <v>291</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="45"/>
+        <v>214.61999999999989</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="46"/>
+        <v>40.74</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="44"/>
+        <v>1.3698630136986302E-2</v>
+      </c>
+      <c r="I116">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117">
+        <v>9.32</v>
+      </c>
+      <c r="C117">
+        <f>C107</f>
+        <v>0.16</v>
+      </c>
+      <c r="D117">
+        <f>D107+I117</f>
+        <v>282</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="45"/>
+        <v>102.51999999999998</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="46"/>
+        <v>45.12</v>
+      </c>
+      <c r="G117" s="2">
+        <f>C117/B117</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+      <c r="I117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <f>SUM(E113:E118)</f>
+        <v>1197.6399999999994</v>
+      </c>
+      <c r="F119">
+        <f>SUM(F113:F118)</f>
+        <v>180.29000000000002</v>
+      </c>
+      <c r="I119">
+        <f>E119-F109</f>
+        <v>1032.6599999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:C7">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0ADDC7B3-FC04-402A-917F-D5150BBA004A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C17">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C6FB76A2-E4CA-4183-A637-A1BFCD84605B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C27">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{25B87467-4660-4891-9965-3F8FEDFD77A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C37">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ABC32006-09FB-4FC3-89AB-DBB83BCBDC2F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C47">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E07055A2-0448-48FE-9C49-9626BA460D8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C57">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{21973D01-C105-458D-9168-19B1779FC57C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73:C77">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FAD31986-BEC9-4EEE-A5FF-B7C437612D8C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B1406940-9E71-4E05-A6D4-2596150E89C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83:C87">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9DC0031E-2377-4DB2-9FAB-3290A2F81520}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:C67">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F467A2D3-9684-4ECD-A8BB-DBA414D91046}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C97">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B3C0C4C1-3320-42DA-82D5-9A27A79BCDBB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103:C107">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3A471530-B52D-4EA0-9DE6-7259F6CC62D7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113:C117">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{815C6273-3584-4FD2-83E0-3572174BE5A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0ADDC7B3-FC04-402A-917F-D5150BBA004A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C6FB76A2-E4CA-4183-A637-A1BFCD84605B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C13:C17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{25B87467-4660-4891-9965-3F8FEDFD77A3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C23:C27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ABC32006-09FB-4FC3-89AB-DBB83BCBDC2F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C33:C37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E07055A2-0448-48FE-9C49-9626BA460D8A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C43:C47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{21973D01-C105-458D-9168-19B1779FC57C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C53:C57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FAD31986-BEC9-4EEE-A5FF-B7C437612D8C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C73:C77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1406940-9E71-4E05-A6D4-2596150E89C6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9DC0031E-2377-4DB2-9FAB-3290A2F81520}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C83:C87</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F467A2D3-9684-4ECD-A8BB-DBA414D91046}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C63:C67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B3C0C4C1-3320-42DA-82D5-9A27A79BCDBB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C93:C97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3A471530-B52D-4EA0-9DE6-7259F6CC62D7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C103:C107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{815C6273-3584-4FD2-83E0-3572174BE5A0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C113:C117</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8262681-6607-411A-8948-F69C4F89E884}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>10.01</v>
-      </c>
-      <c r="C2">
-        <v>0.12</v>
-      </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <f>B2*D2</f>
-        <v>270.27</v>
-      </c>
-      <c r="F2">
-        <f>C2*D2</f>
-        <v>3.2399999999999998</v>
-      </c>
-      <c r="G2">
-        <f>100*C2/B2</f>
-        <v>1.1988011988011988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <f>Planilha2!F9</f>
+        <v>14.170000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>9.68</v>
-      </c>
-      <c r="C3">
-        <v>0.13</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">B3*D3</f>
-        <v>9.68</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" si="1">C3*D3</f>
-        <v>0.13</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G5" si="2">100*C3/B3</f>
-        <v>1.3429752066115703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <f>Planilha2!F19</f>
+        <v>28.730000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="C4">
-        <v>0.12</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>27.660000000000004</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.36</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>1.3015184381778742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <f>Planilha2!F29</f>
+        <v>43.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>97.09</v>
-      </c>
-      <c r="C5">
-        <v>0.72</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>194.18</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1.44</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0.74157997734061176</v>
+        <f>Planilha2!F39</f>
+        <v>58.510000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f>Planilha2!F49</f>
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <f>Planilha2!F59</f>
+        <v>87.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f>Planilha2!F69</f>
+        <v>102.76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/bi/minha_carteira.xlsx
+++ b/bi/minha_carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Desktop\GITHUB\cotacaopython\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A05F4-9069-48C0-9B4D-F76C96CF1469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7113FB-3F6A-466C-AF22-C600CA0B70A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17730" yWindow="2210" windowWidth="15290" windowHeight="15870" activeTab="1" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -190,11 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,25 +377,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.170000000000002</c:v>
+                  <c:v>13.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.730000000000004</c:v>
+                  <c:v>24.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.77</c:v>
+                  <c:v>40.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.510000000000005</c:v>
+                  <c:v>54.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.62</c:v>
+                  <c:v>68.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.65</c:v>
+                  <c:v>83.89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102.76</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,7 +1615,7 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1702,15 +1701,15 @@
       </c>
       <c r="L3">
         <f>E9+E19+E29+E39+E49+E59+E69+E79+E89+E99+E109+E119</f>
-        <v>13455.760000000002</v>
+        <v>13277.840000000002</v>
       </c>
       <c r="M3">
         <f>E9+I19+I29+I39+I49+I59+I69+I79+I89+I99+I109+I119</f>
-        <v>12481.550000000001</v>
+        <v>12342.16</v>
       </c>
       <c r="N3">
         <f>L3-M3</f>
-        <v>974.21000000000095</v>
+        <v>935.68000000000211</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1811,25 +1810,25 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>9.32</v>
+        <v>9.43</v>
       </c>
       <c r="C7">
-        <v>0.16</v>
-      </c>
-      <c r="D7" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D7">
         <v>31</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>288.92</v>
+        <v>292.33</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>4.96</v>
+        <v>4.03</v>
       </c>
       <c r="G7" s="2">
         <f>C7/B7</f>
-        <v>1.7167381974248927E-2</v>
+        <v>1.3785790031813362E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1843,15 +1842,15 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9">
         <f>SUM(E3:E8)</f>
-        <v>1035.68</v>
+        <v>1039.0899999999999</v>
       </c>
       <c r="F9">
         <f>SUM(F3:F8)</f>
-        <v>14.170000000000002</v>
+        <v>13.240000000000002</v>
       </c>
       <c r="I9">
         <f>E9</f>
-        <v>1035.68</v>
+        <v>1039.0899999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1890,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>10.06</v>
+        <v>10.18</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:C16" si="3">C3</f>
@@ -1898,22 +1897,22 @@
       </c>
       <c r="D13">
         <f>D3+I13</f>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <f>(B13*D13)-(B3*D3)</f>
-        <v>181.08000000000004</v>
+        <v>308.64</v>
       </c>
       <c r="F13">
         <f>C13*D13</f>
-        <v>4.95</v>
+        <v>6.2700000000000005</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ref="G13:G16" si="4">C13/B13</f>
-        <v>1.0934393638170973E-2</v>
+        <v>1.0805500982318271E-2</v>
       </c>
       <c r="I13">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1929,22 +1928,22 @@
       </c>
       <c r="D14">
         <f>D4+I14</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E17" si="5">(B14*D14)-(B4*D4)</f>
-        <v>58.080000000000005</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F17" si="6">C14*D14</f>
-        <v>1.17</v>
+        <v>0.39</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="4"/>
         <v>1.3429752066115703E-2</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1952,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>9.3000000000000007</v>
+        <v>9.15</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
@@ -1960,22 +1959,22 @@
       </c>
       <c r="D15">
         <f>D5+I15</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
-        <v>260.40000000000003</v>
+        <v>272.25</v>
       </c>
       <c r="F15">
         <f t="shared" si="6"/>
-        <v>4.7300000000000004</v>
+        <v>4.95</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="4"/>
-        <v>1.1827956989247311E-2</v>
+        <v>1.2021857923497267E-2</v>
       </c>
       <c r="I15">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1983,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>10.220000000000001</v>
+        <v>10.28</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
@@ -1991,22 +1990,22 @@
       </c>
       <c r="D16">
         <f>D6+I16</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
-        <v>286.15999999999997</v>
+        <v>310.19999999999993</v>
       </c>
       <c r="F16">
         <f t="shared" si="6"/>
-        <v>8.120000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="4"/>
-        <v>1.3698630136986302E-2</v>
+        <v>1.3618677042801558E-2</v>
       </c>
       <c r="I16">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -2021,22 +2020,22 @@
       </c>
       <c r="D17">
         <f>D7+I17</f>
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
-        <v>279.59999999999997</v>
+        <v>-3.4099999999999682</v>
       </c>
       <c r="F17">
         <f t="shared" si="6"/>
-        <v>9.76</v>
+        <v>4.96</v>
       </c>
       <c r="G17" s="2">
         <f>C17/B17</f>
         <v>1.7167381974248927E-2</v>
       </c>
       <c r="I17">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -2047,15 +2046,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E19">
         <f>SUM(E13:E18)</f>
-        <v>1065.32</v>
+        <v>887.68</v>
       </c>
       <c r="F19">
         <f>SUM(F13:F18)</f>
-        <v>28.730000000000004</v>
+        <v>24.97</v>
       </c>
       <c r="I19">
         <f>E19-F9</f>
-        <v>1051.1499999999999</v>
+        <v>874.43999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -2102,15 +2101,15 @@
       </c>
       <c r="D23">
         <f>D13+I23</f>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <f>(B23*D23)-(B13*D13)</f>
-        <v>201.19999999999993</v>
+        <v>194.36</v>
       </c>
       <c r="F23">
         <f>C23*D23</f>
-        <v>7.15</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ref="G23:G26" si="8">C23/B23</f>
@@ -2133,15 +2132,15 @@
       </c>
       <c r="D24">
         <f>D14+I24</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24:E27" si="9">(B24*D24)-(B14*D14)</f>
-        <v>96.799999999999983</v>
+        <v>96.800000000000011</v>
       </c>
       <c r="F24">
         <f t="shared" ref="F24:F27" si="10">C24*D24</f>
-        <v>2.4700000000000002</v>
+        <v>1.69</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="8"/>
@@ -2164,15 +2163,15 @@
       </c>
       <c r="D25">
         <f>D15+I25</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <f t="shared" si="9"/>
-        <v>186.00000000000006</v>
+        <v>192.75</v>
       </c>
       <c r="F25">
         <f t="shared" si="10"/>
-        <v>6.93</v>
+        <v>7.15</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="8"/>
@@ -2195,15 +2194,15 @@
       </c>
       <c r="D26">
         <f>D16+I26</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E26">
         <f t="shared" si="9"/>
-        <v>296.38000000000011</v>
+        <v>292.78000000000009</v>
       </c>
       <c r="F26">
         <f t="shared" si="10"/>
-        <v>12.180000000000001</v>
+        <v>12.46</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="8"/>
@@ -2226,15 +2225,15 @@
       </c>
       <c r="D27">
         <f>D17+I27</f>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <f t="shared" si="9"/>
-        <v>307.56000000000006</v>
+        <v>307.56</v>
       </c>
       <c r="F27">
         <f t="shared" si="10"/>
-        <v>15.040000000000001</v>
+        <v>10.24</v>
       </c>
       <c r="G27" s="2">
         <f>C27/B27</f>
@@ -2252,15 +2251,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E29">
         <f>SUM(E23:E28)</f>
-        <v>1087.94</v>
+        <v>1084.25</v>
       </c>
       <c r="F29">
         <f>SUM(F23:F28)</f>
-        <v>43.77</v>
+        <v>40.010000000000005</v>
       </c>
       <c r="I29">
         <f>E29-F19</f>
-        <v>1059.21</v>
+        <v>1059.28</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2307,7 +2306,7 @@
       </c>
       <c r="D33">
         <f>D23+I33</f>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <f>(B33*D33)-(B23*D23)</f>
@@ -2315,7 +2314,7 @@
       </c>
       <c r="F33">
         <f>C33*D33</f>
-        <v>9.35</v>
+        <v>10.67</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ref="G33:G36" si="12">C33/B33</f>
@@ -2338,7 +2337,7 @@
       </c>
       <c r="D34">
         <f>D24+I34</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E37" si="13">(B34*D34)-(B24*D24)</f>
@@ -2346,7 +2345,7 @@
       </c>
       <c r="F34">
         <f t="shared" ref="F34:F37" si="14">C34*D34</f>
-        <v>3.9000000000000004</v>
+        <v>3.12</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="12"/>
@@ -2369,15 +2368,15 @@
       </c>
       <c r="D35">
         <f>D25+I35</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E35">
         <f t="shared" si="13"/>
-        <v>195.29999999999995</v>
+        <v>195.30000000000007</v>
       </c>
       <c r="F35">
         <f t="shared" si="14"/>
-        <v>9.24</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="12"/>
@@ -2400,15 +2399,15 @@
       </c>
       <c r="D36">
         <f>D26+I36</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E36">
         <f t="shared" si="13"/>
-        <v>327.03999999999996</v>
+        <v>327.04000000000008</v>
       </c>
       <c r="F36">
         <f t="shared" si="14"/>
-        <v>16.66</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="12"/>
@@ -2431,7 +2430,7 @@
       </c>
       <c r="D37">
         <f>D27+I37</f>
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E37">
         <f t="shared" si="13"/>
@@ -2439,7 +2438,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="14"/>
-        <v>19.36</v>
+        <v>14.56</v>
       </c>
       <c r="G37" s="2">
         <f>C37/B37</f>
@@ -2457,15 +2456,15 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E39">
         <f>SUM(E33:E38)</f>
-        <v>1081.6599999999999</v>
+        <v>1081.6600000000003</v>
       </c>
       <c r="F39">
         <f>SUM(F33:F38)</f>
-        <v>58.510000000000005</v>
+        <v>54.75</v>
       </c>
       <c r="I39">
         <f>E39-F29</f>
-        <v>1037.8899999999999</v>
+        <v>1041.6500000000003</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2512,7 +2511,7 @@
       </c>
       <c r="D43">
         <f>D33+I43</f>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E43">
         <f>(B43*D43)-(B33*D33)</f>
@@ -2520,7 +2519,7 @@
       </c>
       <c r="F43">
         <f>C43*D43</f>
-        <v>11</v>
+        <v>12.32</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" ref="G43:G46" si="16">C43/B43</f>
@@ -2543,15 +2542,15 @@
       </c>
       <c r="D44">
         <f>D34+I44</f>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E44">
         <f t="shared" ref="E44:E47" si="17">(B44*D44)-(B34*D34)</f>
-        <v>677.6</v>
+        <v>677.59999999999991</v>
       </c>
       <c r="F44">
         <f t="shared" ref="F44:F47" si="18">C44*D44</f>
-        <v>13</v>
+        <v>12.22</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="16"/>
@@ -2574,15 +2573,15 @@
       </c>
       <c r="D45">
         <f>D35+I45</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E45">
         <f t="shared" si="17"/>
-        <v>148.80000000000007</v>
+        <v>148.79999999999995</v>
       </c>
       <c r="F45">
         <f t="shared" si="18"/>
-        <v>11</v>
+        <v>11.22</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="16"/>
@@ -2605,7 +2604,7 @@
       </c>
       <c r="D46">
         <f>D36+I46</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E46">
         <f t="shared" si="17"/>
@@ -2613,7 +2612,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="18"/>
-        <v>16.66</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="16"/>
@@ -2636,7 +2635,7 @@
       </c>
       <c r="D47">
         <f>D37+I47</f>
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E47">
         <f t="shared" si="17"/>
@@ -2644,7 +2643,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="18"/>
-        <v>20.96</v>
+        <v>16.16</v>
       </c>
       <c r="G47" s="2">
         <f>C47/B47</f>
@@ -2666,11 +2665,11 @@
       </c>
       <c r="F49">
         <f>SUM(F43:F48)</f>
-        <v>72.62</v>
+        <v>68.86</v>
       </c>
       <c r="I49">
         <f>E49-F39</f>
-        <v>1011.99</v>
+        <v>1015.75</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2717,7 +2716,7 @@
       </c>
       <c r="D53">
         <f>D43+I53</f>
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E53">
         <f>(B53*D53)-(B43*D43)</f>
@@ -2725,7 +2724,7 @@
       </c>
       <c r="F53">
         <f>C53*D53</f>
-        <v>13.2</v>
+        <v>14.52</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" ref="G53:G56" si="20">C53/B53</f>
@@ -2748,15 +2747,15 @@
       </c>
       <c r="D54">
         <f>D44+I54</f>
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E54">
         <f t="shared" ref="E54:E57" si="21">(B54*D54)-(B44*D44)</f>
-        <v>116.15999999999985</v>
+        <v>116.15999999999997</v>
       </c>
       <c r="F54">
         <f t="shared" ref="F54:F57" si="22">C54*D54</f>
-        <v>14.56</v>
+        <v>13.780000000000001</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="20"/>
@@ -2779,15 +2778,15 @@
       </c>
       <c r="D55">
         <f>D45+I55</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E55">
         <f t="shared" si="21"/>
-        <v>232.49999999999989</v>
+        <v>232.50000000000011</v>
       </c>
       <c r="F55">
         <f t="shared" si="22"/>
-        <v>13.75</v>
+        <v>13.97</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="20"/>
@@ -2810,15 +2809,15 @@
       </c>
       <c r="D56">
         <f>D46+I56</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E56">
         <f t="shared" si="21"/>
-        <v>306.60000000000014</v>
+        <v>306.59999999999991</v>
       </c>
       <c r="F56">
         <f t="shared" si="22"/>
-        <v>20.860000000000003</v>
+        <v>21.14</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="20"/>
@@ -2841,15 +2840,15 @@
       </c>
       <c r="D57">
         <f>D47+I57</f>
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E57">
         <f t="shared" si="21"/>
-        <v>251.63999999999987</v>
+        <v>251.64</v>
       </c>
       <c r="F57">
         <f t="shared" si="22"/>
-        <v>25.28</v>
+        <v>20.48</v>
       </c>
       <c r="G57" s="2">
         <f>C57/B57</f>
@@ -2871,11 +2870,11 @@
       </c>
       <c r="F59">
         <f>SUM(F53:F58)</f>
-        <v>87.65</v>
+        <v>83.89</v>
       </c>
       <c r="I59">
         <f>E59-F49</f>
-        <v>1035.48</v>
+        <v>1039.24</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2922,7 +2921,7 @@
       </c>
       <c r="D63">
         <f>D53+I63</f>
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E63">
         <f>(B63*D63)-(B53*D53)</f>
@@ -2930,7 +2929,7 @@
       </c>
       <c r="F63">
         <f>C63*D63</f>
-        <v>15.4</v>
+        <v>16.72</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" ref="G63:G66" si="23">C63/B63</f>
@@ -2948,20 +2947,20 @@
         <v>9.68</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C63:C66" si="24">C54</f>
+        <f t="shared" ref="C64:C66" si="24">C54</f>
         <v>0.13</v>
       </c>
       <c r="D64">
         <f>D54+I64</f>
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E64">
         <f t="shared" ref="E64:E67" si="25">(B64*D64)-(B54*D54)</f>
-        <v>96.800000000000182</v>
+        <v>96.799999999999955</v>
       </c>
       <c r="F64">
         <f t="shared" ref="F64:F67" si="26">C64*D64</f>
-        <v>15.860000000000001</v>
+        <v>15.08</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="23"/>
@@ -2984,7 +2983,7 @@
       </c>
       <c r="D65">
         <f>D55+I65</f>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E65">
         <f t="shared" si="25"/>
@@ -2992,7 +2991,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="26"/>
-        <v>16.5</v>
+        <v>16.72</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="23"/>
@@ -3015,15 +3014,15 @@
       </c>
       <c r="D66">
         <f>D56+I66</f>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E66">
         <f t="shared" si="25"/>
-        <v>296.37999999999988</v>
+        <v>296.38000000000011</v>
       </c>
       <c r="F66">
         <f t="shared" si="26"/>
-        <v>24.92</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="23"/>
@@ -3046,15 +3045,15 @@
       </c>
       <c r="D67">
         <f>D57+I67</f>
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E67">
         <f t="shared" si="25"/>
-        <v>279.60000000000014</v>
+        <v>279.59999999999991</v>
       </c>
       <c r="F67">
         <f t="shared" si="26"/>
-        <v>30.080000000000002</v>
+        <v>25.28</v>
       </c>
       <c r="G67" s="2">
         <f>C67/B67</f>
@@ -3072,15 +3071,15 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E69">
         <f>SUM(E63:E68)</f>
-        <v>1106.4800000000002</v>
+        <v>1106.48</v>
       </c>
       <c r="F69">
         <f>SUM(F63:F68)</f>
-        <v>102.76</v>
+        <v>99</v>
       </c>
       <c r="I69">
         <f>E69-F59</f>
-        <v>1018.8300000000003</v>
+        <v>1022.59</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3127,7 +3126,7 @@
       </c>
       <c r="D73">
         <f>D63+I73</f>
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E73">
         <f>(B73*D73)-(B63*D63)</f>
@@ -3135,7 +3134,7 @@
       </c>
       <c r="F73">
         <f>C73*D73</f>
-        <v>18.7</v>
+        <v>20.02</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" ref="G73:G76" si="27">C73/B73</f>
@@ -3153,20 +3152,20 @@
         <v>9.68</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C73:C76" si="28">C64</f>
+        <f t="shared" ref="C74:C76" si="28">C64</f>
         <v>0.13</v>
       </c>
       <c r="D74">
         <f>D64+I74</f>
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E74">
         <f t="shared" ref="E74:E77" si="29">(B74*D74)-(B64*D64)</f>
-        <v>271.03999999999996</v>
+        <v>271.04000000000019</v>
       </c>
       <c r="F74">
         <f t="shared" ref="F74:F77" si="30">C74*D74</f>
-        <v>19.5</v>
+        <v>18.72</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="27"/>
@@ -3189,15 +3188,15 @@
       </c>
       <c r="D75">
         <f>D65+I75</f>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E75">
         <f t="shared" si="29"/>
-        <v>279.00000000000023</v>
+        <v>279</v>
       </c>
       <c r="F75">
         <f t="shared" si="30"/>
-        <v>19.8</v>
+        <v>20.02</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="27"/>
@@ -3220,7 +3219,7 @@
       </c>
       <c r="D76">
         <f>D66+I76</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E76">
         <f t="shared" si="29"/>
@@ -3228,7 +3227,7 @@
       </c>
       <c r="F76">
         <f t="shared" si="30"/>
-        <v>27.860000000000003</v>
+        <v>28.140000000000004</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="27"/>
@@ -3251,15 +3250,15 @@
       </c>
       <c r="D77">
         <f>D67+I77</f>
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E77">
         <f t="shared" si="29"/>
-        <v>102.51999999999998</v>
+        <v>102.52000000000021</v>
       </c>
       <c r="F77">
         <f t="shared" si="30"/>
-        <v>31.84</v>
+        <v>27.04</v>
       </c>
       <c r="G77" s="2">
         <f>C77/B77</f>
@@ -3277,15 +3276,15 @@
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E79">
         <f>SUM(E73:E78)</f>
-        <v>1168.9800000000002</v>
+        <v>1168.9800000000005</v>
       </c>
       <c r="F79">
         <f>SUM(F73:F78)</f>
-        <v>117.7</v>
+        <v>113.94</v>
       </c>
       <c r="I79">
         <f>E79-F69</f>
-        <v>1066.2200000000003</v>
+        <v>1069.9800000000005</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3333,7 +3332,7 @@
       </c>
       <c r="D83">
         <f>D73+I83</f>
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E83">
         <f>(B83*D83)-(B73*D73)</f>
@@ -3341,7 +3340,7 @@
       </c>
       <c r="F83">
         <f>C83*D83</f>
-        <v>18.7</v>
+        <v>20.02</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" ref="G83:G86" si="32">C83/B83</f>
@@ -3364,7 +3363,7 @@
       </c>
       <c r="D84">
         <f>D74+I84</f>
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E84">
         <f t="shared" ref="E84:E87" si="33">(B84*D84)-(B74*D74)</f>
@@ -3372,7 +3371,7 @@
       </c>
       <c r="F84">
         <f t="shared" ref="F84:F87" si="34">C84*D84</f>
-        <v>23.400000000000002</v>
+        <v>22.62</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="32"/>
@@ -3395,7 +3394,7 @@
       </c>
       <c r="D85">
         <f>D75+I85</f>
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E85">
         <f t="shared" si="33"/>
@@ -3403,7 +3402,7 @@
       </c>
       <c r="F85">
         <f t="shared" si="34"/>
-        <v>23.32</v>
+        <v>23.54</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="32"/>
@@ -3426,7 +3425,7 @@
       </c>
       <c r="D86">
         <f>D76+I86</f>
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E86">
         <f t="shared" si="33"/>
@@ -3434,7 +3433,7 @@
       </c>
       <c r="F86">
         <f t="shared" si="34"/>
-        <v>31.780000000000005</v>
+        <v>32.06</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="32"/>
@@ -3457,7 +3456,7 @@
       </c>
       <c r="D87">
         <f>D77+I87</f>
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="E87">
         <f t="shared" si="33"/>
@@ -3465,7 +3464,7 @@
       </c>
       <c r="F87">
         <f t="shared" si="34"/>
-        <v>36.800000000000004</v>
+        <v>32</v>
       </c>
       <c r="G87" s="2">
         <f>C87/B87</f>
@@ -3487,11 +3486,11 @@
       </c>
       <c r="F89">
         <f>SUM(F83:F88)</f>
-        <v>134</v>
+        <v>130.24</v>
       </c>
       <c r="I89">
         <f>E89-F79</f>
-        <v>1045.3799999999994</v>
+        <v>1049.1399999999994</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3538,15 +3537,15 @@
       </c>
       <c r="D93">
         <f>D83+I93</f>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E93">
         <f>(B93*D93)-(B83*D83)</f>
-        <v>301.79999999999995</v>
+        <v>301.80000000000018</v>
       </c>
       <c r="F93">
         <f>C93*D93</f>
-        <v>22</v>
+        <v>23.32</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" ref="G93:G96" si="36">C93/B93</f>
@@ -3569,15 +3568,15 @@
       </c>
       <c r="D94">
         <f>D84+I94</f>
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E94">
         <f t="shared" ref="E94:E97" si="37">(B94*D94)-(B84*D84)</f>
-        <v>193.60000000000014</v>
+        <v>193.59999999999991</v>
       </c>
       <c r="F94">
         <f t="shared" ref="F94:F97" si="38">C94*D94</f>
-        <v>26</v>
+        <v>25.220000000000002</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" si="36"/>
@@ -3600,7 +3599,7 @@
       </c>
       <c r="D95">
         <f>D85+I95</f>
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E95">
         <f t="shared" si="37"/>
@@ -3608,7 +3607,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="38"/>
-        <v>26.62</v>
+        <v>26.84</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="36"/>
@@ -3631,7 +3630,7 @@
       </c>
       <c r="D96">
         <f>D86+I96</f>
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E96">
         <f t="shared" si="37"/>
@@ -3639,7 +3638,7 @@
       </c>
       <c r="F96">
         <f t="shared" si="38"/>
-        <v>34.860000000000007</v>
+        <v>35.14</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" si="36"/>
@@ -3662,15 +3661,15 @@
       </c>
       <c r="D97">
         <f>D87+I97</f>
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E97">
         <f t="shared" si="37"/>
-        <v>177.08000000000038</v>
+        <v>177.08000000000015</v>
       </c>
       <c r="F97">
         <f t="shared" si="38"/>
-        <v>39.840000000000003</v>
+        <v>35.04</v>
       </c>
       <c r="G97" s="2">
         <f>C97/B97</f>
@@ -3688,15 +3687,15 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E99">
         <f>SUM(E93:E98)</f>
-        <v>1176.3200000000008</v>
+        <v>1176.3200000000006</v>
       </c>
       <c r="F99">
         <f>SUM(F93:F98)</f>
-        <v>149.32000000000002</v>
+        <v>145.56</v>
       </c>
       <c r="I99">
         <f>E99-F89</f>
-        <v>1042.3200000000008</v>
+        <v>1046.0800000000006</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3743,15 +3742,15 @@
       </c>
       <c r="D103">
         <f>D93+I103</f>
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E103">
         <f>(B103*D103)-(B93*D93)</f>
-        <v>301.80000000000018</v>
+        <v>301.79999999999973</v>
       </c>
       <c r="F103">
         <f>C103*D103</f>
-        <v>25.3</v>
+        <v>26.62</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" ref="G103:G106" si="40">C103/B103</f>
@@ -3774,15 +3773,15 @@
       </c>
       <c r="D104">
         <f>D94+I104</f>
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E104">
         <f t="shared" ref="E104:E107" si="41">(B104*D104)-(B94*D94)</f>
-        <v>193.59999999999991</v>
+        <v>193.60000000000014</v>
       </c>
       <c r="F104">
         <f t="shared" ref="F104:F107" si="42">C104*D104</f>
-        <v>28.6</v>
+        <v>27.82</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" si="40"/>
@@ -3805,7 +3804,7 @@
       </c>
       <c r="D105">
         <f>D95+I105</f>
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E105">
         <f t="shared" si="41"/>
@@ -3813,7 +3812,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="42"/>
-        <v>29.92</v>
+        <v>30.14</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" si="40"/>
@@ -3836,7 +3835,7 @@
       </c>
       <c r="D106">
         <f>D96+I106</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E106">
         <f t="shared" si="41"/>
@@ -3844,7 +3843,7 @@
       </c>
       <c r="F106">
         <f t="shared" si="42"/>
-        <v>37.800000000000004</v>
+        <v>38.080000000000005</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" si="40"/>
@@ -3867,15 +3866,15 @@
       </c>
       <c r="D107">
         <f>D97+I107</f>
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="E107">
         <f t="shared" si="41"/>
-        <v>205.03999999999996</v>
+        <v>205.03999999999974</v>
       </c>
       <c r="F107">
         <f t="shared" si="42"/>
-        <v>43.36</v>
+        <v>38.56</v>
       </c>
       <c r="G107" s="2">
         <f>C107/B107</f>
@@ -3893,15 +3892,15 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E109">
         <f>SUM(E103:E108)</f>
-        <v>1194.06</v>
+        <v>1194.0599999999995</v>
       </c>
       <c r="F109">
         <f>SUM(F103:F108)</f>
-        <v>164.98000000000002</v>
+        <v>161.22</v>
       </c>
       <c r="I109">
         <f>E109-F99</f>
-        <v>1044.74</v>
+        <v>1048.4999999999995</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3948,15 +3947,15 @@
       </c>
       <c r="D113">
         <f>D103+I113</f>
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E113">
         <f>(B113*D113)-(B103*D103)</f>
-        <v>301.79999999999973</v>
+        <v>301.80000000000018</v>
       </c>
       <c r="F113">
         <f>C113*D113</f>
-        <v>28.6</v>
+        <v>29.92</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" ref="G113:G116" si="44">C113/B113</f>
@@ -3979,7 +3978,7 @@
       </c>
       <c r="D114">
         <f>D104+I114</f>
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E114">
         <f t="shared" ref="E114:E117" si="45">(B114*D114)-(B104*D104)</f>
@@ -3987,7 +3986,7 @@
       </c>
       <c r="F114">
         <f t="shared" ref="F114:F117" si="46">C114*D114</f>
-        <v>32.5</v>
+        <v>31.720000000000002</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" si="44"/>
@@ -4010,7 +4009,7 @@
       </c>
       <c r="D115">
         <f>D105+I115</f>
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E115">
         <f t="shared" si="45"/>
@@ -4018,7 +4017,7 @@
       </c>
       <c r="F115">
         <f t="shared" si="46"/>
-        <v>33.33</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" si="44"/>
@@ -4041,7 +4040,7 @@
       </c>
       <c r="D116">
         <f>D106+I116</f>
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E116">
         <f t="shared" si="45"/>
@@ -4049,7 +4048,7 @@
       </c>
       <c r="F116">
         <f t="shared" si="46"/>
-        <v>40.74</v>
+        <v>41.02</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" si="44"/>
@@ -4072,7 +4071,7 @@
       </c>
       <c r="D117">
         <f>D107+I117</f>
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="E117">
         <f t="shared" si="45"/>
@@ -4080,7 +4079,7 @@
       </c>
       <c r="F117">
         <f t="shared" si="46"/>
-        <v>45.12</v>
+        <v>40.32</v>
       </c>
       <c r="G117" s="2">
         <f>C117/B117</f>
@@ -4098,15 +4097,15 @@
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E118)</f>
-        <v>1197.6399999999994</v>
+        <v>1197.6399999999999</v>
       </c>
       <c r="F119">
         <f>SUM(F113:F118)</f>
-        <v>180.29000000000002</v>
+        <v>176.53</v>
       </c>
       <c r="I119">
         <f>E119-F109</f>
-        <v>1032.6599999999994</v>
+        <v>1036.4199999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4467,7 +4466,7 @@
       </c>
       <c r="B2">
         <f>Planilha2!F9</f>
-        <v>14.170000000000002</v>
+        <v>13.240000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4476,7 +4475,7 @@
       </c>
       <c r="B3">
         <f>Planilha2!F19</f>
-        <v>28.730000000000004</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4485,7 +4484,7 @@
       </c>
       <c r="B4">
         <f>Planilha2!F29</f>
-        <v>43.77</v>
+        <v>40.010000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4494,7 +4493,7 @@
       </c>
       <c r="B5">
         <f>Planilha2!F39</f>
-        <v>58.510000000000005</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4503,7 +4502,7 @@
       </c>
       <c r="B6">
         <f>Planilha2!F49</f>
-        <v>72.62</v>
+        <v>68.86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4512,7 +4511,7 @@
       </c>
       <c r="B7">
         <f>Planilha2!F59</f>
-        <v>87.65</v>
+        <v>83.89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4521,7 +4520,7 @@
       </c>
       <c r="B8">
         <f>Planilha2!F69</f>
-        <v>102.76</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/bi/minha_carteira.xlsx
+++ b/bi/minha_carteira.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Desktop\GITHUB\cotacaopython\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7113FB-3F6A-466C-AF22-C600CA0B70A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9226D-ABD2-4C06-9827-87732E8FD574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="55">
   <si>
     <t>acoes</t>
   </si>
@@ -114,31 +114,103 @@
     <t>fevereiro</t>
   </si>
   <si>
-    <t>março</t>
-  </si>
-  <si>
-    <t>abril</t>
-  </si>
-  <si>
-    <t>maio</t>
-  </si>
-  <si>
-    <t>junho</t>
-  </si>
-  <si>
-    <t>julho</t>
-  </si>
-  <si>
     <t>pg</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>VGIA11</t>
+  </si>
+  <si>
+    <t>MXRF11</t>
+  </si>
+  <si>
+    <t>RZAG11</t>
+  </si>
+  <si>
+    <t>BIME11</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OUTUBRO</t>
+  </si>
+  <si>
+    <t>SETEMBRO</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>NOVEMBRO</t>
+  </si>
+  <si>
+    <t>DEZEMBRO</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEZ</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEV</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>JANEIRO</t>
+  </si>
+  <si>
+    <t>MARÇO</t>
+  </si>
+  <si>
+    <t>FEVEREIRO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>MAIO</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
+    <t>MESES</t>
+  </si>
+  <si>
+    <t>RETORNO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,16 +258,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -213,6 +290,966 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$O$6:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MAI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$P$6:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.19</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>95.190000000000012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149.15</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>168.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23FB-45F8-875C-1B7B297D3CAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="335120656"/>
+        <c:axId val="335118160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="335120656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335118160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="335118160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335120656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$P$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GASTOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$O$25:$O$35</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MAI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$P$25:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1433.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>733.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1090.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1090.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1098.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1098.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1098.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1152.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1191.5999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5844-49DD-B71C-305EB12ED68E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RETORNO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$O$25:$O$35</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MAI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$Q$25:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.190000000000012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5844-49DD-B71C-305EB12ED68E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="332808080"/>
+        <c:axId val="332799344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="332808080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332799344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="332799344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332808080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -377,25 +1414,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.240000000000002</c:v>
+                  <c:v>20.550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.97</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.010000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.86</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,7 +1653,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1135,6 +3284,83 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>520699</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66D0004-F68C-C758-9B2A-9C822F9CBF92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C266835-C755-C154-F9A5-1B8DC26800AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1475,7 +3701,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1612,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2619C85-7CCB-457A-931C-AF4C1404E312}">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1623,14 +3849,16 @@
     <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1668,9 +3896,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>10.06</v>
@@ -1690,1455 +3918,1459 @@
         <v>2.97</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G6" si="0">C3/B3</f>
+        <f t="shared" ref="G3:G5" si="0">C3/B3</f>
         <v>1.0934393638170973E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <f>E9+E19+E29+E39+E49+E59+E69+E79+E89+E99+E109+E119</f>
-        <v>13277.840000000002</v>
-      </c>
-      <c r="M3">
-        <f>E9+I19+I29+I39+I49+I59+I69+I79+I89+I99+I109+I119</f>
-        <v>12342.16</v>
-      </c>
       <c r="N3">
         <f>L3-M3</f>
-        <v>935.68000000000211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>9.68</v>
+        <v>10.23</v>
       </c>
       <c r="C4">
-        <v>0.13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
+        <v>0.17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>55</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E7" si="1">B4*D4</f>
-        <v>29.04</v>
+        <f>B4*D4</f>
+        <v>562.65</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F7" si="2">C4*D4</f>
-        <v>0.39</v>
+        <f>D4*C4</f>
+        <v>9.3500000000000014</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3429752066115703E-2</v>
+        <f>C4/B4</f>
+        <v>1.6617790811339198E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>9.3000000000000007</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="C5">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>139.5</v>
+        <f t="shared" ref="E5:E6" si="1">B5*D5</f>
+        <v>306.60000000000002</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>1.65</v>
+        <f t="shared" ref="F5:F6" si="2">C5*D5</f>
+        <v>4.2</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1.1827956989247311E-2</v>
+        <v>1.3698630136986302E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>10.220000000000001</v>
+        <v>9.43</v>
       </c>
       <c r="C6">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>306.60000000000002</v>
+        <v>292.33</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>4.2</v>
+        <v>4.03</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3698630136986302E-2</v>
+        <f>C6/B6</f>
+        <v>1.3785790031813362E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="5">
+        <f>F8</f>
+        <v>20.550000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f>SUM(E3:E7)</f>
+        <v>1433.1999999999998</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F3:F7)</f>
+        <v>20.550000000000004</v>
+      </c>
+      <c r="I8">
+        <f>E8</f>
+        <v>1433.1999999999998</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="5">
+        <f>F17</f>
+        <v>30.090000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="5">
+        <f>F27</f>
+        <v>46.290000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="5">
+        <f>F37</f>
+        <v>61.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="5">
+        <f>F47</f>
+        <v>77.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>10.18</v>
+      </c>
+      <c r="C12">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <f>D3+I12</f>
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <f>I12*B12</f>
+        <v>305.39999999999998</v>
+      </c>
+      <c r="F12">
+        <f>C12*D12</f>
+        <v>6.2700000000000005</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:G14" si="3">C12/B12</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12">
+        <f>F57</f>
+        <v>95.190000000000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.17</v>
+      </c>
+      <c r="D13">
+        <f>D4+I13</f>
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <f>I13*B13</f>
+        <v>120</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F15" si="4">C13*D13</f>
+        <v>11.39</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="5">
+        <f>F67</f>
+        <v>113.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.28</v>
+      </c>
+      <c r="C14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D14">
+        <f>D5+I14</f>
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E15" si="5">I14*B14</f>
+        <v>308.39999999999998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>8.4</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3618677042801558E-2</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="5">
+        <f>F77</f>
+        <v>131.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>9.43</v>
-      </c>
-      <c r="C7">
+      <c r="B15">
+        <v>9.32</v>
+      </c>
+      <c r="C15">
         <v>0.13</v>
       </c>
-      <c r="D7">
+      <c r="D15">
+        <f>D6+I15</f>
         <v>31</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>292.33</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>4.03</v>
-      </c>
-      <c r="G7" s="2">
-        <f>C7/B7</f>
-        <v>1.3785790031813362E-2</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E9">
-        <f>SUM(E3:E8)</f>
-        <v>1039.0899999999999</v>
-      </c>
-      <c r="F9">
-        <f>SUM(F3:F8)</f>
-        <v>13.240000000000002</v>
-      </c>
-      <c r="I9">
-        <f>E9</f>
-        <v>1039.0899999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>10.18</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:C16" si="3">C3</f>
-        <v>0.11</v>
-      </c>
-      <c r="D13">
-        <f>D3+I13</f>
-        <v>57</v>
-      </c>
-      <c r="E13">
-        <f>(B13*D13)-(B3*D3)</f>
-        <v>308.64</v>
-      </c>
-      <c r="F13">
-        <f>C13*D13</f>
-        <v>6.2700000000000005</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" ref="G13:G16" si="4">C13/B13</f>
-        <v>1.0805500982318271E-2</v>
-      </c>
-      <c r="I13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>9.68</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>0.13</v>
-      </c>
-      <c r="D14">
-        <f>D4+I14</f>
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E17" si="5">(B14*D14)-(B4*D4)</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:F17" si="6">C14*D14</f>
-        <v>0.39</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3429752066115703E-2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>9.15</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>0.11</v>
-      </c>
-      <c r="D15">
-        <f>D5+I15</f>
-        <v>45</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
-        <v>272.25</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="6"/>
-        <v>4.95</v>
+        <f t="shared" si="4"/>
+        <v>4.03</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2021857923497267E-2</v>
+        <f>C15/B15</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="5">
+        <f>F87</f>
+        <v>149.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16">
+        <f>F97</f>
+        <v>168.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>SUM(E12:E16)</f>
+        <v>733.8</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F12:F16)</f>
+        <v>30.090000000000003</v>
+      </c>
+      <c r="I17">
+        <f>E17-F8</f>
+        <v>713.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>10.18</v>
+      </c>
+      <c r="C22">
+        <v>0.11</v>
+      </c>
+      <c r="D22">
+        <f>D13+I22</f>
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <f>I22*B22</f>
+        <v>305.39999999999998</v>
+      </c>
+      <c r="F22">
+        <f>C22*D22</f>
+        <v>10.67</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:G24" si="6">C22/B22</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I22">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
         <v>10</v>
       </c>
-      <c r="B16">
-        <v>10.28</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D16">
-        <f>D6+I16</f>
-        <v>60</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
-        <v>310.19999999999993</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="6"/>
-        <v>8.4</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3618677042801558E-2</v>
-      </c>
-      <c r="I16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>9.32</v>
-      </c>
-      <c r="C17">
-        <v>0.16</v>
-      </c>
-      <c r="D17">
-        <f>D7+I17</f>
-        <v>31</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="5"/>
-        <v>-3.4099999999999682</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="6"/>
-        <v>4.96</v>
-      </c>
-      <c r="G17" s="2">
-        <f>C17/B17</f>
-        <v>1.7167381974248927E-2</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E19">
-        <f>SUM(E13:E18)</f>
-        <v>887.68</v>
-      </c>
-      <c r="F19">
-        <f>SUM(F13:F18)</f>
-        <v>24.97</v>
-      </c>
-      <c r="I19">
-        <f>E19-F9</f>
-        <v>874.43999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>10.06</v>
-      </c>
       <c r="C23">
-        <f t="shared" ref="C23:C26" si="7">C13</f>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="D23">
         <f>D13+I23</f>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E23">
-        <f>(B23*D23)-(B13*D13)</f>
-        <v>194.36</v>
+        <f>I23*B23</f>
+        <v>300</v>
       </c>
       <c r="F23">
-        <f>C23*D23</f>
-        <v>8.4700000000000006</v>
+        <f t="shared" ref="F23:F25" si="7">C23*D23</f>
+        <v>16.490000000000002</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" ref="G23:G26" si="8">C23/B23</f>
-        <v>1.0934393638170973E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>9.68</v>
+        <v>10.28</v>
       </c>
       <c r="C24">
-        <f t="shared" si="7"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D24">
         <f>D14+I24</f>
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E27" si="9">(B24*D24)-(B14*D14)</f>
-        <v>96.800000000000011</v>
+        <f t="shared" ref="E24:E25" si="8">I24*B24</f>
+        <v>205.6</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F27" si="10">C24*D24</f>
-        <v>1.69</v>
+        <f t="shared" si="7"/>
+        <v>11.200000000000001</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="8"/>
-        <v>1.3429752066115703E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.3618677042801558E-2</v>
       </c>
       <c r="I24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>9.3000000000000007</v>
+        <v>9.32</v>
       </c>
       <c r="C25">
-        <f t="shared" si="7"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D25">
         <f>D15+I25</f>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E25">
-        <f t="shared" si="9"/>
-        <v>192.75</v>
+        <f t="shared" si="8"/>
+        <v>279.60000000000002</v>
       </c>
       <c r="F25">
-        <f t="shared" si="10"/>
-        <v>7.15</v>
+        <f t="shared" si="7"/>
+        <v>7.9300000000000006</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="8"/>
-        <v>1.1827956989247311E-2</v>
+        <f>C25/B25</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="I25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26">
+        <f>E8</f>
+        <v>1433.1999999999998</v>
+      </c>
+      <c r="Q26">
+        <f>F8</f>
+        <v>20.550000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f>SUM(E22:E26)</f>
+        <v>1090.5999999999999</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F22:F26)</f>
+        <v>46.290000000000006</v>
+      </c>
+      <c r="I27">
+        <f>E27-F17</f>
+        <v>1060.51</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27">
+        <f>E17</f>
+        <v>733.8</v>
+      </c>
+      <c r="Q27">
+        <f>F17</f>
+        <v>30.090000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28">
+        <f>E27</f>
+        <v>1090.5999999999999</v>
+      </c>
+      <c r="Q28">
+        <f>F27</f>
+        <v>46.290000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29">
+        <f>E37</f>
+        <v>1090.5999999999999</v>
+      </c>
+      <c r="Q29">
+        <f>F37</f>
+        <v>61.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30">
+        <f>E47</f>
+        <v>1098.4000000000001</v>
+      </c>
+      <c r="Q30">
+        <f>F47</f>
+        <v>77.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31">
+        <f>E57</f>
+        <v>1098.4000000000001</v>
+      </c>
+      <c r="Q31">
+        <f>F57</f>
+        <v>95.190000000000012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>10.18</v>
+      </c>
+      <c r="C32">
+        <v>0.11</v>
+      </c>
+      <c r="D32">
+        <f>D23+I32</f>
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <f>I32*B32</f>
+        <v>305.39999999999998</v>
+      </c>
+      <c r="F32">
+        <f>C32*D32</f>
+        <v>13.97</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" ref="G32:G34" si="9">C32/B32</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32">
+        <f>E67</f>
+        <v>1098.4000000000001</v>
+      </c>
+      <c r="Q32">
+        <f>F67</f>
+        <v>113.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>10</v>
       </c>
-      <c r="B26">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="7"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D26">
-        <f>D16+I26</f>
-        <v>89</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="9"/>
-        <v>292.78000000000009</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="10"/>
-        <v>12.46</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="8"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>9.32</v>
-      </c>
-      <c r="C27">
-        <f>C17</f>
-        <v>0.16</v>
-      </c>
-      <c r="D27">
-        <f>D17+I27</f>
-        <v>64</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="9"/>
-        <v>307.56</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="10"/>
-        <v>10.24</v>
-      </c>
-      <c r="G27" s="2">
-        <f>C27/B27</f>
-        <v>1.7167381974248927E-2</v>
-      </c>
-      <c r="I27">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E29">
-        <f>SUM(E23:E28)</f>
-        <v>1084.25</v>
-      </c>
-      <c r="F29">
-        <f>SUM(F23:F28)</f>
-        <v>40.010000000000005</v>
-      </c>
-      <c r="I29">
-        <f>E29-F19</f>
-        <v>1059.28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>10.06</v>
-      </c>
       <c r="C33">
-        <f t="shared" ref="C33:C36" si="11">C23</f>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="D33">
         <f>D23+I33</f>
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="E33">
-        <f>(B33*D33)-(B23*D23)</f>
-        <v>201.20000000000005</v>
+        <f>I33*B33</f>
+        <v>300</v>
       </c>
       <c r="F33">
-        <f>C33*D33</f>
-        <v>10.67</v>
+        <f t="shared" ref="F33:F35" si="10">C33*D33</f>
+        <v>21.59</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" ref="G33:G36" si="12">C33/B33</f>
-        <v>1.0934393638170973E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33">
+        <f>E77</f>
+        <v>1143</v>
+      </c>
+      <c r="Q33">
+        <f>F77</f>
+        <v>131.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>9.68</v>
+        <v>10.28</v>
       </c>
       <c r="C34">
-        <f t="shared" si="11"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D34">
         <f>D24+I34</f>
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E37" si="13">(B34*D34)-(B24*D24)</f>
-        <v>106.47999999999999</v>
+        <f t="shared" ref="E34:E35" si="11">I34*B34</f>
+        <v>205.6</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F37" si="14">C34*D34</f>
-        <v>3.12</v>
+        <f t="shared" si="10"/>
+        <v>14.000000000000002</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="12"/>
-        <v>1.3429752066115703E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.3618677042801558E-2</v>
       </c>
       <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P34">
+        <f>E87</f>
+        <v>1152.4000000000001</v>
+      </c>
+      <c r="Q34">
+        <f>F87</f>
+        <v>149.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
       <c r="B35">
-        <v>9.3000000000000007</v>
+        <v>9.32</v>
       </c>
       <c r="C35">
-        <f t="shared" si="11"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D35">
         <f>D25+I35</f>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E35">
-        <f t="shared" si="13"/>
-        <v>195.30000000000007</v>
+        <f t="shared" si="11"/>
+        <v>279.60000000000002</v>
       </c>
       <c r="F35">
-        <f t="shared" si="14"/>
-        <v>9.4600000000000009</v>
+        <f t="shared" si="10"/>
+        <v>11.83</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="12"/>
-        <v>1.1827956989247311E-2</v>
+        <f>C35/B35</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="I35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35">
+        <f>E97</f>
+        <v>1191.5999999999999</v>
+      </c>
+      <c r="Q35">
+        <f>F97</f>
+        <v>168.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f>SUM(E32:E36)</f>
+        <v>1090.5999999999999</v>
+      </c>
+      <c r="F37">
+        <f>SUM(F32:F36)</f>
+        <v>61.39</v>
+      </c>
+      <c r="I37">
+        <f>E37-F27</f>
+        <v>1044.31</v>
+      </c>
+      <c r="P37">
+        <f>SUM(P25:P36)</f>
+        <v>11130.4</v>
+      </c>
+      <c r="Q37">
+        <f>SUM(Q25:Q36)</f>
+        <v>892.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>10.18</v>
+      </c>
+      <c r="C42">
+        <v>0.11</v>
+      </c>
+      <c r="D42">
+        <f>D33+I42</f>
+        <v>147</v>
+      </c>
+      <c r="E42">
+        <f>I42*B42</f>
+        <v>203.6</v>
+      </c>
+      <c r="F42">
+        <f>C42*D42</f>
+        <v>16.170000000000002</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" ref="G42:G44" si="12">C42/B42</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
         <v>10</v>
       </c>
-      <c r="B36">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="11"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D36">
-        <f>D26+I36</f>
-        <v>121</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="13"/>
-        <v>327.04000000000008</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="14"/>
-        <v>16.940000000000001</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="12"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I36">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37">
-        <v>9.32</v>
-      </c>
-      <c r="C37">
-        <f>C27</f>
-        <v>0.16</v>
-      </c>
-      <c r="D37">
-        <f>D27+I37</f>
-        <v>91</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="13"/>
-        <v>251.64</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="14"/>
-        <v>14.56</v>
-      </c>
-      <c r="G37" s="2">
-        <f>C37/B37</f>
-        <v>1.7167381974248927E-2</v>
-      </c>
-      <c r="I37">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E39">
-        <f>SUM(E33:E38)</f>
-        <v>1081.6600000000003</v>
-      </c>
-      <c r="F39">
-        <f>SUM(F33:F38)</f>
-        <v>54.75</v>
-      </c>
-      <c r="I39">
-        <f>E39-F29</f>
-        <v>1041.6500000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>10.06</v>
-      </c>
       <c r="C43">
-        <f t="shared" ref="C43:C46" si="15">C33</f>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="D43">
         <f>D33+I43</f>
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="E43">
-        <f>(B43*D43)-(B33*D33)</f>
-        <v>150.89999999999998</v>
+        <f>I43*B43</f>
+        <v>400</v>
       </c>
       <c r="F43">
-        <f>C43*D43</f>
-        <v>12.32</v>
+        <f t="shared" ref="F43:F45" si="13">C43*D43</f>
+        <v>28.39</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" ref="G43:G46" si="16">C43/B43</f>
-        <v>1.0934393638170973E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I43">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>9.68</v>
+        <v>10.28</v>
       </c>
       <c r="C44">
-        <f t="shared" si="15"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D44">
         <f>D34+I44</f>
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:E47" si="17">(B44*D44)-(B34*D34)</f>
-        <v>677.59999999999991</v>
+        <f t="shared" ref="E44:E45" si="14">I44*B44</f>
+        <v>308.39999999999998</v>
       </c>
       <c r="F44">
-        <f t="shared" ref="F44:F47" si="18">C44*D44</f>
-        <v>12.22</v>
+        <f t="shared" si="13"/>
+        <v>18.200000000000003</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="16"/>
-        <v>1.3429752066115703E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.3618677042801558E-2</v>
       </c>
       <c r="I44">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>9.3000000000000007</v>
+        <v>9.32</v>
       </c>
       <c r="C45">
-        <f t="shared" si="15"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D45">
         <f>D35+I45</f>
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E45">
-        <f t="shared" si="17"/>
-        <v>148.79999999999995</v>
+        <f t="shared" si="14"/>
+        <v>186.4</v>
       </c>
       <c r="F45">
-        <f t="shared" si="18"/>
-        <v>11.22</v>
+        <f t="shared" si="13"/>
+        <v>14.43</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="16"/>
-        <v>1.1827956989247311E-2</v>
+        <f>C45/B45</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="I45">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="15"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D46">
-        <f>D36+I46</f>
-        <v>121</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="18"/>
-        <v>16.940000000000001</v>
-      </c>
-      <c r="G46" s="2">
-        <f t="shared" si="16"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47">
-        <v>9.32</v>
-      </c>
-      <c r="C47">
-        <f>C37</f>
-        <v>0.16</v>
-      </c>
-      <c r="D47">
-        <f>D37+I47</f>
-        <v>101</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E47">
-        <f t="shared" si="17"/>
-        <v>93.200000000000045</v>
+        <f>SUM(E42:E46)</f>
+        <v>1098.4000000000001</v>
       </c>
       <c r="F47">
-        <f t="shared" si="18"/>
-        <v>16.16</v>
-      </c>
-      <c r="G47" s="2">
-        <f>C47/B47</f>
-        <v>1.7167381974248927E-2</v>
+        <f>SUM(F42:F46)</f>
+        <v>77.19</v>
       </c>
       <c r="I47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E49">
-        <f>SUM(E43:E48)</f>
-        <v>1070.5</v>
-      </c>
-      <c r="F49">
-        <f>SUM(F43:F48)</f>
-        <v>68.86</v>
-      </c>
-      <c r="I49">
-        <f>E49-F39</f>
-        <v>1015.75</v>
+        <f>E47-F37</f>
+        <v>1037.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>10.18</v>
+      </c>
+      <c r="C52">
+        <v>0.11</v>
+      </c>
+      <c r="D52">
+        <f>D43+I52</f>
+        <v>187</v>
+      </c>
+      <c r="E52">
+        <f>I52*B52</f>
+        <v>203.6</v>
+      </c>
+      <c r="F52">
+        <f>C52*D52</f>
+        <v>20.57</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" ref="G52:G54" si="15">C52/B52</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I52">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>10.06</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:C56" si="19">C43</f>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="D53">
         <f>D43+I53</f>
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="E53">
-        <f>(B53*D53)-(B43*D43)</f>
-        <v>201.20000000000005</v>
+        <f>I53*B53</f>
+        <v>400</v>
       </c>
       <c r="F53">
-        <f>C53*D53</f>
-        <v>14.52</v>
+        <f t="shared" ref="F53:F55" si="16">C53*D53</f>
+        <v>35.190000000000005</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" ref="G53:G56" si="20">C53/B53</f>
-        <v>1.0934393638170973E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I53">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>9.68</v>
+        <v>10.28</v>
       </c>
       <c r="C54">
-        <f t="shared" si="19"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D54">
         <f>D44+I54</f>
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:E57" si="21">(B54*D54)-(B44*D44)</f>
-        <v>116.15999999999997</v>
+        <f t="shared" ref="E54:E55" si="17">I54*B54</f>
+        <v>308.39999999999998</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54:F57" si="22">C54*D54</f>
-        <v>13.780000000000001</v>
+        <f t="shared" si="16"/>
+        <v>22.400000000000002</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="20"/>
-        <v>1.3429752066115703E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.3618677042801558E-2</v>
       </c>
       <c r="I54">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>9.3000000000000007</v>
+        <v>9.32</v>
       </c>
       <c r="C55">
-        <f t="shared" si="19"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D55">
         <f>D45+I55</f>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E55">
-        <f t="shared" si="21"/>
-        <v>232.50000000000011</v>
+        <f t="shared" si="17"/>
+        <v>186.4</v>
       </c>
       <c r="F55">
-        <f t="shared" si="22"/>
-        <v>13.97</v>
+        <f t="shared" si="16"/>
+        <v>17.03</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="20"/>
-        <v>1.1827956989247311E-2</v>
+        <f>C55/B55</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="I55">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="19"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D56">
-        <f>D46+I56</f>
-        <v>151</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="21"/>
-        <v>306.59999999999991</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="22"/>
-        <v>21.14</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="20"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I56">
-        <v>30</v>
+      <c r="I56" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57">
-        <v>9.32</v>
-      </c>
-      <c r="C57">
-        <f>C47</f>
-        <v>0.16</v>
-      </c>
-      <c r="D57">
-        <f>D47+I57</f>
-        <v>128</v>
-      </c>
       <c r="E57">
-        <f t="shared" si="21"/>
-        <v>251.64</v>
+        <f>SUM(E52:E56)</f>
+        <v>1098.4000000000001</v>
       </c>
       <c r="F57">
-        <f t="shared" si="22"/>
-        <v>20.48</v>
-      </c>
-      <c r="G57" s="2">
-        <f>C57/B57</f>
-        <v>1.7167381974248927E-2</v>
+        <f>SUM(F52:F56)</f>
+        <v>95.190000000000012</v>
       </c>
       <c r="I57">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E59">
-        <f>SUM(E53:E58)</f>
-        <v>1108.0999999999999</v>
-      </c>
-      <c r="F59">
-        <f>SUM(F53:F58)</f>
-        <v>83.89</v>
-      </c>
-      <c r="I59">
-        <f>E59-F49</f>
-        <v>1039.24</v>
+        <f>E57-F47</f>
+        <v>1021.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>10.18</v>
+      </c>
+      <c r="C62">
+        <v>0.11</v>
+      </c>
+      <c r="D62">
+        <f>D53+I62</f>
+        <v>227</v>
+      </c>
+      <c r="E62">
+        <f>I62*B62</f>
+        <v>203.6</v>
+      </c>
+      <c r="F62">
+        <f>C62*D62</f>
+        <v>24.97</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" ref="G62:G64" si="18">C62/B62</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I62">
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>10.06</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <f>C53</f>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="D63">
         <f>D53+I63</f>
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="E63">
-        <f>(B63*D63)-(B53*D53)</f>
-        <v>201.20000000000005</v>
+        <f>I63*B63</f>
+        <v>400</v>
       </c>
       <c r="F63">
-        <f>C63*D63</f>
-        <v>16.72</v>
+        <f t="shared" ref="F63:F65" si="19">C63*D63</f>
+        <v>41.99</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" ref="G63:G66" si="23">C63/B63</f>
-        <v>1.0934393638170973E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I63">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>9.68</v>
+        <v>10.28</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C66" si="24">C54</f>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D64">
         <f>D54+I64</f>
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64:E67" si="25">(B64*D64)-(B54*D54)</f>
-        <v>96.799999999999955</v>
+        <f t="shared" ref="E64:E65" si="20">I64*B64</f>
+        <v>308.39999999999998</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64:F67" si="26">C64*D64</f>
-        <v>15.08</v>
+        <f t="shared" si="19"/>
+        <v>26.6</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="23"/>
-        <v>1.3429752066115703E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.3618677042801558E-2</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>9.3000000000000007</v>
+        <v>9.32</v>
       </c>
       <c r="C65">
-        <f t="shared" si="24"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D65">
         <f>D55+I65</f>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E65">
-        <f t="shared" si="25"/>
-        <v>232.5</v>
+        <f t="shared" si="20"/>
+        <v>186.4</v>
       </c>
       <c r="F65">
-        <f t="shared" si="26"/>
-        <v>16.72</v>
+        <f t="shared" si="19"/>
+        <v>19.63</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="23"/>
-        <v>1.1827956989247311E-2</v>
+        <f>C65/B65</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="I65">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="24"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D66">
-        <f>D56+I66</f>
-        <v>180</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="25"/>
-        <v>296.38000000000011</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="26"/>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" si="23"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I66">
-        <v>29</v>
+      <c r="I66" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67">
-        <v>9.32</v>
-      </c>
-      <c r="C67">
-        <f>C57</f>
-        <v>0.16</v>
-      </c>
-      <c r="D67">
-        <f>D57+I67</f>
-        <v>158</v>
-      </c>
       <c r="E67">
-        <f t="shared" si="25"/>
-        <v>279.59999999999991</v>
+        <f>SUM(E62:E66)</f>
+        <v>1098.4000000000001</v>
       </c>
       <c r="F67">
-        <f t="shared" si="26"/>
-        <v>25.28</v>
-      </c>
-      <c r="G67" s="2">
-        <f>C67/B67</f>
-        <v>1.7167381974248927E-2</v>
+        <f>SUM(F62:F66)</f>
+        <v>113.19</v>
       </c>
       <c r="I67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E69">
-        <f>SUM(E63:E68)</f>
-        <v>1106.48</v>
-      </c>
-      <c r="F69">
-        <f>SUM(F63:F68)</f>
-        <v>99</v>
-      </c>
-      <c r="I69">
-        <f>E69-F59</f>
-        <v>1022.59</v>
+        <f>E67-F57</f>
+        <v>1003.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>10.18</v>
+      </c>
+      <c r="C72">
+        <v>0.11</v>
+      </c>
+      <c r="D72">
+        <f>D63+I72</f>
+        <v>267</v>
+      </c>
+      <c r="E72">
+        <f>I72*B72</f>
+        <v>203.6</v>
+      </c>
+      <c r="F72">
+        <f>C72*D72</f>
+        <v>29.37</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" ref="G72:G74" si="21">C72/B72</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I72">
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>10.06</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <f>C63</f>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="D73">
         <f>D63+I73</f>
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="E73">
-        <f>(B73*D73)-(B63*D63)</f>
-        <v>301.79999999999995</v>
+        <f>I73*B73</f>
+        <v>300</v>
       </c>
       <c r="F73">
-        <f>C73*D73</f>
-        <v>20.02</v>
+        <f t="shared" ref="F73:F75" si="22">C73*D73</f>
+        <v>47.09</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" ref="G73:G76" si="27">C73/B73</f>
-        <v>1.0934393638170973E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I73">
         <v>30</v>
@@ -3146,971 +5378,427 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>9.68</v>
+        <v>10.28</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C76" si="28">C64</f>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D74">
         <f>D64+I74</f>
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="E74">
-        <f t="shared" ref="E74:E77" si="29">(B74*D74)-(B64*D64)</f>
-        <v>271.04000000000019</v>
+        <f t="shared" ref="E74:E75" si="23">I74*B74</f>
+        <v>359.79999999999995</v>
       </c>
       <c r="F74">
-        <f t="shared" ref="F74:F77" si="30">C74*D74</f>
-        <v>18.72</v>
+        <f t="shared" si="22"/>
+        <v>31.500000000000004</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="27"/>
-        <v>1.3429752066115703E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.3618677042801558E-2</v>
       </c>
       <c r="I74">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>9.3000000000000007</v>
+        <v>9.32</v>
       </c>
       <c r="C75">
-        <f t="shared" si="28"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D75">
         <f>D65+I75</f>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E75">
-        <f t="shared" si="29"/>
-        <v>279</v>
+        <f t="shared" si="23"/>
+        <v>279.60000000000002</v>
       </c>
       <c r="F75">
-        <f t="shared" si="30"/>
-        <v>20.02</v>
+        <f t="shared" si="22"/>
+        <v>23.53</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="27"/>
-        <v>1.1827956989247311E-2</v>
+        <f>C75/B75</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="I75">
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="28"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D76">
-        <f>D66+I76</f>
-        <v>201</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="29"/>
-        <v>214.62000000000012</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="30"/>
-        <v>28.140000000000004</v>
-      </c>
-      <c r="G76" s="2">
-        <f t="shared" si="27"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I76">
-        <v>21</v>
+      <c r="I76" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77">
-        <v>9.32</v>
-      </c>
-      <c r="C77">
-        <f>C67</f>
-        <v>0.16</v>
-      </c>
-      <c r="D77">
-        <f>D67+I77</f>
-        <v>169</v>
-      </c>
       <c r="E77">
-        <f t="shared" si="29"/>
-        <v>102.52000000000021</v>
+        <f>SUM(E72:E76)</f>
+        <v>1143</v>
       </c>
       <c r="F77">
-        <f t="shared" si="30"/>
-        <v>27.04</v>
-      </c>
-      <c r="G77" s="2">
-        <f>C77/B77</f>
-        <v>1.7167381974248927E-2</v>
+        <f>SUM(F72:F76)</f>
+        <v>131.49</v>
       </c>
       <c r="I77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E79">
-        <f>SUM(E73:E78)</f>
-        <v>1168.9800000000005</v>
-      </c>
-      <c r="F79">
-        <f>SUM(F73:F78)</f>
-        <v>113.94</v>
-      </c>
-      <c r="I79">
-        <f>E79-F69</f>
-        <v>1069.9800000000005</v>
+        <f>E77-F67</f>
+        <v>1029.81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" ref="C82:C86" si="31">C72</f>
-        <v>rendimento</v>
-      </c>
-      <c r="D82" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>10.18</v>
+      </c>
+      <c r="C82">
+        <v>0.11</v>
+      </c>
+      <c r="D82">
+        <f>D73+I82</f>
+        <v>297</v>
+      </c>
+      <c r="E82">
+        <f>I82*B82</f>
+        <v>203.6</v>
+      </c>
+      <c r="F82">
+        <f>C82*D82</f>
+        <v>32.67</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" ref="G82:G84" si="24">C82/B82</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I82">
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B83">
-        <v>10.06</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <f t="shared" si="31"/>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="D83">
         <f>D73+I83</f>
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="E83">
-        <f>(B83*D83)-(B73*D73)</f>
-        <v>0</v>
+        <f>I83*B83</f>
+        <v>400</v>
       </c>
       <c r="F83">
-        <f>C83*D83</f>
-        <v>20.02</v>
+        <f t="shared" ref="F83:F85" si="25">C83*D83</f>
+        <v>53.89</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" ref="G83:G86" si="32">C83/B83</f>
-        <v>1.0934393638170973E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>9.68</v>
+        <v>10.28</v>
       </c>
       <c r="C84">
-        <f t="shared" si="31"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D84">
         <f>D74+I84</f>
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="E84">
-        <f t="shared" ref="E84:E87" si="33">(B84*D84)-(B74*D74)</f>
-        <v>290.39999999999986</v>
+        <f t="shared" ref="E84:E85" si="26">I84*B84</f>
+        <v>287.83999999999997</v>
       </c>
       <c r="F84">
-        <f t="shared" ref="F84:F87" si="34">C84*D84</f>
-        <v>22.62</v>
+        <f t="shared" si="25"/>
+        <v>35.42</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="32"/>
-        <v>1.3429752066115703E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.3618677042801558E-2</v>
       </c>
       <c r="I84">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B85">
-        <v>9.3000000000000007</v>
+        <v>9.32</v>
       </c>
       <c r="C85">
-        <f t="shared" si="31"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D85">
         <f>D75+I85</f>
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E85">
-        <f t="shared" si="33"/>
-        <v>297.59999999999991</v>
+        <f t="shared" si="26"/>
+        <v>260.96000000000004</v>
       </c>
       <c r="F85">
-        <f t="shared" si="34"/>
-        <v>23.54</v>
+        <f t="shared" si="25"/>
+        <v>27.17</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="32"/>
-        <v>1.1827956989247311E-2</v>
+        <f>C85/B85</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="I85">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="31"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D86">
-        <f>D76+I86</f>
-        <v>229</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="33"/>
-        <v>286.15999999999985</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="34"/>
-        <v>32.06</v>
-      </c>
-      <c r="G86" s="2">
-        <f t="shared" si="32"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I86">
-        <v>28</v>
+      <c r="I86" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87">
-        <v>9.32</v>
-      </c>
-      <c r="C87">
-        <f>C77</f>
-        <v>0.16</v>
-      </c>
-      <c r="D87">
-        <f>D77+I87</f>
-        <v>200</v>
-      </c>
       <c r="E87">
-        <f t="shared" si="33"/>
-        <v>288.91999999999985</v>
+        <f>SUM(E82:E86)</f>
+        <v>1152.4000000000001</v>
       </c>
       <c r="F87">
-        <f t="shared" si="34"/>
-        <v>32</v>
-      </c>
-      <c r="G87" s="2">
-        <f>C87/B87</f>
-        <v>1.7167381974248927E-2</v>
+        <f>SUM(F82:F86)</f>
+        <v>149.15</v>
       </c>
       <c r="I87">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E89">
-        <f>SUM(E83:E88)</f>
-        <v>1163.0799999999995</v>
-      </c>
-      <c r="F89">
-        <f>SUM(F83:F88)</f>
-        <v>130.24</v>
-      </c>
-      <c r="I89">
-        <f>E89-F79</f>
-        <v>1049.1399999999994</v>
+        <f>E87-F77</f>
+        <v>1020.9100000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>10.18</v>
+      </c>
+      <c r="C92">
+        <v>0.11</v>
+      </c>
+      <c r="D92">
+        <f>D83+I92</f>
+        <v>337</v>
+      </c>
+      <c r="E92">
+        <f>I92*B92</f>
+        <v>203.6</v>
+      </c>
+      <c r="F92">
+        <f>C92*D92</f>
+        <v>37.07</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" ref="G92:G94" si="27">C92/B92</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I92">
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B93">
-        <v>10.06</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:C96" si="35">C83</f>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="D93">
         <f>D83+I93</f>
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="E93">
-        <f>(B93*D93)-(B83*D83)</f>
-        <v>301.80000000000018</v>
+        <f>I93*B93</f>
+        <v>400</v>
       </c>
       <c r="F93">
-        <f>C93*D93</f>
-        <v>23.32</v>
+        <f t="shared" ref="F93:F95" si="28">C93*D93</f>
+        <v>60.690000000000005</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" ref="G93:G96" si="36">C93/B93</f>
-        <v>1.0934393638170973E-2</v>
+        <f t="shared" si="27"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I93">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B94">
-        <v>9.68</v>
+        <v>10.28</v>
       </c>
       <c r="C94">
-        <f t="shared" si="35"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D94">
         <f>D84+I94</f>
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="E94">
-        <f t="shared" ref="E94:E97" si="37">(B94*D94)-(B84*D84)</f>
-        <v>193.59999999999991</v>
+        <f t="shared" ref="E94:E95" si="29">I94*B94</f>
+        <v>308.39999999999998</v>
       </c>
       <c r="F94">
-        <f t="shared" ref="F94:F97" si="38">C94*D94</f>
-        <v>25.220000000000002</v>
+        <f t="shared" si="28"/>
+        <v>39.620000000000005</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="36"/>
-        <v>1.3429752066115703E-2</v>
+        <f t="shared" si="27"/>
+        <v>1.3618677042801558E-2</v>
       </c>
       <c r="I94">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B95">
-        <v>9.3000000000000007</v>
+        <v>9.32</v>
       </c>
       <c r="C95">
-        <f t="shared" si="35"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D95">
         <f>D85+I95</f>
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E95">
-        <f t="shared" si="37"/>
-        <v>279.00000000000023</v>
+        <f t="shared" si="29"/>
+        <v>279.60000000000002</v>
       </c>
       <c r="F95">
-        <f t="shared" si="38"/>
-        <v>26.84</v>
+        <f t="shared" si="28"/>
+        <v>31.07</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="36"/>
-        <v>1.1827956989247311E-2</v>
+        <f>C95/B95</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="I95">
         <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="35"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D96">
-        <f>D86+I96</f>
-        <v>251</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="37"/>
-        <v>224.84000000000015</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="38"/>
-        <v>35.14</v>
-      </c>
-      <c r="G96" s="2">
-        <f t="shared" si="36"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I96">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97">
-        <v>9.32</v>
-      </c>
-      <c r="C97">
-        <f>C87</f>
-        <v>0.16</v>
-      </c>
-      <c r="D97">
-        <f>D87+I97</f>
-        <v>219</v>
-      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E97">
-        <f t="shared" si="37"/>
-        <v>177.08000000000015</v>
+        <f>SUM(E92:E96)</f>
+        <v>1191.5999999999999</v>
       </c>
       <c r="F97">
-        <f t="shared" si="38"/>
-        <v>35.04</v>
-      </c>
-      <c r="G97" s="2">
-        <f>C97/B97</f>
-        <v>1.7167381974248927E-2</v>
+        <f>SUM(F92:F96)</f>
+        <v>168.45</v>
       </c>
       <c r="I97">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E99">
-        <f>SUM(E93:E98)</f>
-        <v>1176.3200000000006</v>
-      </c>
-      <c r="F99">
-        <f>SUM(F93:F98)</f>
-        <v>145.56</v>
-      </c>
-      <c r="I99">
-        <f>E99-F89</f>
-        <v>1046.0800000000006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" t="s">
-        <v>9</v>
-      </c>
-      <c r="I102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103">
-        <v>10.06</v>
-      </c>
-      <c r="C103">
-        <f t="shared" ref="C103:C106" si="39">C93</f>
-        <v>0.11</v>
-      </c>
-      <c r="D103">
-        <f>D93+I103</f>
-        <v>242</v>
-      </c>
-      <c r="E103">
-        <f>(B103*D103)-(B93*D93)</f>
-        <v>301.79999999999973</v>
-      </c>
-      <c r="F103">
-        <f>C103*D103</f>
-        <v>26.62</v>
-      </c>
-      <c r="G103" s="2">
-        <f t="shared" ref="G103:G106" si="40">C103/B103</f>
-        <v>1.0934393638170973E-2</v>
-      </c>
-      <c r="I103">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104">
-        <v>9.68</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="39"/>
-        <v>0.13</v>
-      </c>
-      <c r="D104">
-        <f>D94+I104</f>
-        <v>214</v>
-      </c>
-      <c r="E104">
-        <f t="shared" ref="E104:E107" si="41">(B104*D104)-(B94*D94)</f>
-        <v>193.60000000000014</v>
-      </c>
-      <c r="F104">
-        <f t="shared" ref="F104:F107" si="42">C104*D104</f>
-        <v>27.82</v>
-      </c>
-      <c r="G104" s="2">
-        <f t="shared" si="40"/>
-        <v>1.3429752066115703E-2</v>
-      </c>
-      <c r="I104">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="39"/>
-        <v>0.11</v>
-      </c>
-      <c r="D105">
-        <f>D95+I105</f>
-        <v>274</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="41"/>
-        <v>279</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="42"/>
-        <v>30.14</v>
-      </c>
-      <c r="G105" s="2">
-        <f t="shared" si="40"/>
-        <v>1.1827956989247311E-2</v>
-      </c>
-      <c r="I105">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="39"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D106">
-        <f>D96+I106</f>
-        <v>272</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="41"/>
-        <v>214.61999999999989</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="42"/>
-        <v>38.080000000000005</v>
-      </c>
-      <c r="G106" s="2">
-        <f t="shared" si="40"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I106">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107">
-        <v>9.32</v>
-      </c>
-      <c r="C107">
-        <f>C97</f>
-        <v>0.16</v>
-      </c>
-      <c r="D107">
-        <f>D97+I107</f>
-        <v>241</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="41"/>
-        <v>205.03999999999974</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="42"/>
-        <v>38.56</v>
-      </c>
-      <c r="G107" s="2">
-        <f>C107/B107</f>
-        <v>1.7167381974248927E-2</v>
-      </c>
-      <c r="I107">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E109">
-        <f>SUM(E103:E108)</f>
-        <v>1194.0599999999995</v>
-      </c>
-      <c r="F109">
-        <f>SUM(F103:F108)</f>
-        <v>161.22</v>
-      </c>
-      <c r="I109">
-        <f>E109-F99</f>
-        <v>1048.4999999999995</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>8</v>
-      </c>
-      <c r="G112" t="s">
-        <v>9</v>
-      </c>
-      <c r="I112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113">
-        <v>10.06</v>
-      </c>
-      <c r="C113">
-        <f t="shared" ref="C113:C116" si="43">C103</f>
-        <v>0.11</v>
-      </c>
-      <c r="D113">
-        <f>D103+I113</f>
-        <v>272</v>
-      </c>
-      <c r="E113">
-        <f>(B113*D113)-(B103*D103)</f>
-        <v>301.80000000000018</v>
-      </c>
-      <c r="F113">
-        <f>C113*D113</f>
-        <v>29.92</v>
-      </c>
-      <c r="G113" s="2">
-        <f t="shared" ref="G113:G116" si="44">C113/B113</f>
-        <v>1.0934393638170973E-2</v>
-      </c>
-      <c r="I113">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114">
-        <v>9.68</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="43"/>
-        <v>0.13</v>
-      </c>
-      <c r="D114">
-        <f>D104+I114</f>
-        <v>244</v>
-      </c>
-      <c r="E114">
-        <f t="shared" ref="E114:E117" si="45">(B114*D114)-(B104*D104)</f>
-        <v>290.40000000000009</v>
-      </c>
-      <c r="F114">
-        <f t="shared" ref="F114:F117" si="46">C114*D114</f>
-        <v>31.720000000000002</v>
-      </c>
-      <c r="G114" s="2">
-        <f t="shared" si="44"/>
-        <v>1.3429752066115703E-2</v>
-      </c>
-      <c r="I114">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="43"/>
-        <v>0.11</v>
-      </c>
-      <c r="D115">
-        <f>D105+I115</f>
-        <v>305</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="45"/>
-        <v>288.29999999999973</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="46"/>
-        <v>33.549999999999997</v>
-      </c>
-      <c r="G115" s="2">
-        <f t="shared" si="44"/>
-        <v>1.1827956989247311E-2</v>
-      </c>
-      <c r="I115">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B116">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="43"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D116">
-        <f>D106+I116</f>
-        <v>293</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="45"/>
-        <v>214.61999999999989</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="46"/>
-        <v>41.02</v>
-      </c>
-      <c r="G116" s="2">
-        <f t="shared" si="44"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="I116">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117">
-        <v>9.32</v>
-      </c>
-      <c r="C117">
-        <f>C107</f>
-        <v>0.16</v>
-      </c>
-      <c r="D117">
-        <f>D107+I117</f>
-        <v>252</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="45"/>
-        <v>102.51999999999998</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="46"/>
-        <v>40.32</v>
-      </c>
-      <c r="G117" s="2">
-        <f>C117/B117</f>
-        <v>1.7167381974248927E-2</v>
-      </c>
-      <c r="I117">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E119">
-        <f>SUM(E113:E118)</f>
-        <v>1197.6399999999999</v>
-      </c>
-      <c r="F119">
-        <f>SUM(F113:F118)</f>
-        <v>176.53</v>
-      </c>
-      <c r="I119">
-        <f>E119-F109</f>
-        <v>1036.4199999999998</v>
+        <f>E97-F87</f>
+        <v>1042.4499999999998</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C7">
-    <cfRule type="dataBar" priority="27">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C6">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4123,63 +5811,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C17">
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C6FB76A2-E4CA-4183-A637-A1BFCD84605B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C27">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{25B87467-4660-4891-9965-3F8FEDFD77A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C37">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ABC32006-09FB-4FC3-89AB-DBB83BCBDC2F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C47">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E07055A2-0448-48FE-9C49-9626BA460D8A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C57">
+  <conditionalFormatting sqref="C12:C15">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -4188,12 +5820,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21973D01-C105-458D-9168-19B1779FC57C}</x14:id>
+          <x14:id>{21F94D33-E8B2-4AE5-9A2F-EA2A3877E905}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73:C77">
+  <conditionalFormatting sqref="C22:C25">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4EABAA94-2252-4486-B680-24B4A12716E1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C35">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -4202,12 +5848,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FAD31986-BEC9-4EEE-A5FF-B7C437612D8C}</x14:id>
+          <x14:id>{CCED20C7-E6B6-480E-AA60-C32564320443}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
+  <conditionalFormatting sqref="C42:C45">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -4216,12 +5862,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B1406940-9E71-4E05-A6D4-2596150E89C6}</x14:id>
+          <x14:id>{E0F6C2A2-A8A9-4291-8702-28FBF9FE80B3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83:C87">
+  <conditionalFormatting sqref="C52:C55">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -4230,12 +5876,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9DC0031E-2377-4DB2-9FAB-3290A2F81520}</x14:id>
+          <x14:id>{89FF013F-7E7A-4337-837D-8F78444CC04E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C67">
+  <conditionalFormatting sqref="C62:C65">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -4244,12 +5890,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F467A2D3-9684-4ECD-A8BB-DBA414D91046}</x14:id>
+          <x14:id>{1D258C04-C793-4E54-AB60-051800BF126E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C97">
+  <conditionalFormatting sqref="C72:C75">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -4258,12 +5904,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B3C0C4C1-3320-42DA-82D5-9A27A79BCDBB}</x14:id>
+          <x14:id>{82FDBD1A-15B8-4006-9934-7AFD88DC6991}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:C107">
+  <conditionalFormatting sqref="C82:C85">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -4272,12 +5918,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3A471530-B52D-4EA0-9DE6-7259F6CC62D7}</x14:id>
+          <x14:id>{EC1B53EB-4322-4937-933F-FB2B1A200C52}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C113:C117">
+  <conditionalFormatting sqref="C92:C95">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -4286,13 +5932,14 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{815C6273-3584-4FD2-83E0-3572174BE5A0}</x14:id>
+          <x14:id>{0CA4D930-E9EF-46DB-9B5C-41FBCA70F9F6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4305,10 +5952,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C3:C7</xm:sqref>
+          <xm:sqref>C3:C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C6FB76A2-E4CA-4183-A637-A1BFCD84605B}">
+          <x14:cfRule type="dataBar" id="{21F94D33-E8B2-4AE5-9A2F-EA2A3877E905}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4316,10 +5963,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C13:C17</xm:sqref>
+          <xm:sqref>C12:C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{25B87467-4660-4891-9965-3F8FEDFD77A3}">
+          <x14:cfRule type="dataBar" id="{4EABAA94-2252-4486-B680-24B4A12716E1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4327,10 +5974,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C23:C27</xm:sqref>
+          <xm:sqref>C22:C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ABC32006-09FB-4FC3-89AB-DBB83BCBDC2F}">
+          <x14:cfRule type="dataBar" id="{CCED20C7-E6B6-480E-AA60-C32564320443}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4338,10 +5985,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C33:C37</xm:sqref>
+          <xm:sqref>C32:C35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E07055A2-0448-48FE-9C49-9626BA460D8A}">
+          <x14:cfRule type="dataBar" id="{E0F6C2A2-A8A9-4291-8702-28FBF9FE80B3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4349,10 +5996,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C43:C47</xm:sqref>
+          <xm:sqref>C42:C45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21973D01-C105-458D-9168-19B1779FC57C}">
+          <x14:cfRule type="dataBar" id="{89FF013F-7E7A-4337-837D-8F78444CC04E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4360,10 +6007,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C53:C57</xm:sqref>
+          <xm:sqref>C52:C55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FAD31986-BEC9-4EEE-A5FF-B7C437612D8C}">
+          <x14:cfRule type="dataBar" id="{1D258C04-C793-4E54-AB60-051800BF126E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4371,10 +6018,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C73:C77</xm:sqref>
+          <xm:sqref>C62:C65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B1406940-9E71-4E05-A6D4-2596150E89C6}">
+          <x14:cfRule type="dataBar" id="{82FDBD1A-15B8-4006-9934-7AFD88DC6991}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4382,10 +6029,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C82</xm:sqref>
+          <xm:sqref>C72:C75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9DC0031E-2377-4DB2-9FAB-3290A2F81520}">
+          <x14:cfRule type="dataBar" id="{EC1B53EB-4322-4937-933F-FB2B1A200C52}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4393,10 +6040,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C83:C87</xm:sqref>
+          <xm:sqref>C82:C85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F467A2D3-9684-4ECD-A8BB-DBA414D91046}">
+          <x14:cfRule type="dataBar" id="{0CA4D930-E9EF-46DB-9B5C-41FBCA70F9F6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4404,40 +6051,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C63:C67</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B3C0C4C1-3320-42DA-82D5-9A27A79BCDBB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C93:C97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A471530-B52D-4EA0-9DE6-7259F6CC62D7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C103:C107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{815C6273-3584-4FD2-83E0-3572174BE5A0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C113:C117</xm:sqref>
+          <xm:sqref>C92:C95</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4465,62 +6079,62 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f>Planilha2!F9</f>
-        <v>13.240000000000002</v>
+        <f>Planilha2!F8</f>
+        <v>20.550000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <f>Planilha2!F19</f>
-        <v>24.97</v>
+      <c r="B3" t="e">
+        <f>Planilha2!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <f>Planilha2!F29</f>
-        <v>40.010000000000005</v>
+      <c r="B4" t="e">
+        <f>Planilha2!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <f>Planilha2!F39</f>
-        <v>54.75</v>
+      <c r="B5" t="e">
+        <f>Planilha2!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <f>Planilha2!F49</f>
-        <v>68.86</v>
+      <c r="B6" t="e">
+        <f>Planilha2!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
-        <f>Planilha2!F59</f>
-        <v>83.89</v>
+      <c r="B7" t="e">
+        <f>Planilha2!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8">
-        <f>Planilha2!F69</f>
-        <v>99</v>
+      <c r="B8" t="e">
+        <f>Planilha2!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/bi/minha_carteira.xlsx
+++ b/bi/minha_carteira.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Desktop\GITHUB\cotacaopython\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9226D-ABD2-4C06-9827-87732E8FD574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6052ECB-2987-4A6D-9707-4C5F737045F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{BA8CCB60-0BDB-486D-9217-0F76718954BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="49">
   <si>
     <t>acoes</t>
   </si>
@@ -81,21 +80,6 @@
     <t>valor_investido</t>
   </si>
   <si>
-    <t>agosto</t>
-  </si>
-  <si>
-    <t>setembro</t>
-  </si>
-  <si>
-    <t>outubro</t>
-  </si>
-  <si>
-    <t>novembro</t>
-  </si>
-  <si>
-    <t>dezembro</t>
-  </si>
-  <si>
     <t>reenvestindo</t>
   </si>
   <si>
@@ -103,15 +87,6 @@
   </si>
   <si>
     <t>sobra</t>
-  </si>
-  <si>
-    <t>renda_mes</t>
-  </si>
-  <si>
-    <t>janeiro</t>
-  </si>
-  <si>
-    <t>fevereiro</t>
   </si>
   <si>
     <t>pg</t>
@@ -203,6 +178,12 @@
   <si>
     <t>RETORNO</t>
   </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
 </sst>
 </file>
 
@@ -241,12 +222,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,13 +256,14 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -428,9 +422,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha2!$O$6:$O$16</c:f>
+              <c:f>Planilha2!$O$6:$O$17</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>JUL</c:v>
                 </c:pt>
@@ -463,16 +457,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>JUN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$P$6:$P$16</c:f>
+              <c:f>Planilha2!$P$6:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -480,31 +477,34 @@
                   <c:v>20.550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.090000000000003</c:v>
+                  <c:v>30.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.290000000000006</c:v>
+                  <c:v>45.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.39</c:v>
+                  <c:v>61.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.19</c:v>
+                  <c:v>77.320000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>95.190000000000012</c:v>
+                  <c:v>95.320000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113.19</c:v>
+                  <c:v>113.32000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>131.49</c:v>
+                  <c:v>131.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>149.15</c:v>
+                  <c:v>149.28</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>168.45</c:v>
+                  <c:v>168.57999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>187.88000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,9 +850,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha2!$O$25:$O$35</c:f>
+              <c:f>Planilha2!$O$25:$O$36</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>JUL</c:v>
                 </c:pt>
@@ -885,16 +885,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>JUN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$P$25:$P$35</c:f>
+              <c:f>Planilha2!$P$25:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -902,7 +905,7 @@
                   <c:v>1433.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>733.8</c:v>
+                  <c:v>773.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1090.5999999999999</c:v>
@@ -926,6 +929,9 @@
                   <c:v>1152.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1191.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1191.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -966,9 +972,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha2!$O$25:$O$35</c:f>
+              <c:f>Planilha2!$O$25:$O$36</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>JUL</c:v>
                 </c:pt>
@@ -1001,16 +1007,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>JUN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$Q$25:$Q$35</c:f>
+              <c:f>Planilha2!$Q$25:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1018,31 +1027,34 @@
                   <c:v>20.550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.090000000000003</c:v>
+                  <c:v>30.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.290000000000006</c:v>
+                  <c:v>45.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.39</c:v>
+                  <c:v>61.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.19</c:v>
+                  <c:v>77.320000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.190000000000012</c:v>
+                  <c:v>95.320000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113.19</c:v>
+                  <c:v>113.32000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>131.49</c:v>
+                  <c:v>131.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>149.15</c:v>
+                  <c:v>149.28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168.45</c:v>
+                  <c:v>168.57999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>187.88000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,370 +1261,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>renda_mes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha3!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>agosto</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>setembro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>outubro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>novembro</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>dezembro</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>janeiro</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fevereiro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha3!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>20.550000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A152-41C1-9404-1AB21B27B001}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="79"/>
-        <c:overlap val="100"/>
-        <c:axId val="39918543"/>
-        <c:axId val="39924367"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="39918543"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="39924367"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="39924367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39918543"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1693,46 +1341,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2765,536 +2373,18 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>520699</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -3324,13 +2414,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
+      <xdr:colOff>3174</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -3352,47 +2442,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C5E21B-DAF3-D344-1316-6466BD7D1578}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3838,31 +2887,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2619C85-7CCB-457A-931C-AF4C1404E312}">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="4" customWidth="1"/>
     <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3871,36 +2920,36 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>10.06</v>
       </c>
       <c r="C3">
@@ -3909,11 +2958,11 @@
       <c r="D3">
         <v>27</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <f>B3*D3</f>
         <v>271.62</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <f>C3*D3</f>
         <v>2.97</v>
       </c>
@@ -3922,7 +2971,7 @@
         <v>1.0934393638170973E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3933,23 +2982,23 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
         <v>10.23</v>
       </c>
       <c r="C4">
         <v>0.17</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>55</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <f>B4*D4</f>
         <v>562.65</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <f>D4*C4</f>
         <v>9.3500000000000014</v>
       </c>
@@ -3958,17 +3007,17 @@
         <v>1.6617790811339198E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
         <v>10.220000000000001</v>
       </c>
       <c r="C5">
@@ -3977,11 +3026,11 @@
       <c r="D5">
         <v>30</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f t="shared" ref="E5:E6" si="1">B5*D5</f>
         <v>306.60000000000002</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F6" si="2">C5*D5</f>
         <v>4.2</v>
       </c>
@@ -3990,17 +3039,17 @@
         <v>1.3698630136986302E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
         <v>9.43</v>
       </c>
       <c r="C6">
@@ -4009,11 +3058,11 @@
       <c r="D6">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>292.33</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" si="2"/>
         <v>4.03</v>
       </c>
@@ -4022,13 +3071,13 @@
         <v>1.3785790031813362E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -4038,20 +3087,20 @@
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="4">
         <f>F8</f>
         <v>20.550000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E8">
+      <c r="E8" s="4">
         <f>SUM(E3:E7)</f>
         <v>1433.1999999999998</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <f>SUM(F3:F7)</f>
         <v>20.550000000000004</v>
       </c>
@@ -4059,40 +3108,40 @@
         <f>E8</f>
         <v>1433.1999999999998</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="O8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="4">
         <f>F17</f>
-        <v>30.090000000000003</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="O9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="4">
         <f>F27</f>
-        <v>46.290000000000006</v>
+        <v>45.650000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="5">
+        <v>24</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="4">
         <f>F37</f>
-        <v>61.39</v>
+        <v>61.52</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -4101,10 +3150,10 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G11" t="s">
@@ -4113,19 +3162,20 @@
       <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="O11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="4">
         <f>F47</f>
-        <v>77.19</v>
+        <v>77.320000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
+      <c r="A12" t="str">
+        <f>A3</f>
+        <v>MXRF11</v>
+      </c>
+      <c r="B12" s="4">
         <v>10.18</v>
       </c>
       <c r="C12">
@@ -4133,36 +3183,37 @@
       </c>
       <c r="D12">
         <f>D3+I12</f>
-        <v>57</v>
-      </c>
-      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4">
         <f>I12*B12</f>
-        <v>305.39999999999998</v>
-      </c>
-      <c r="F12">
+        <v>335.94</v>
+      </c>
+      <c r="F12" s="4">
         <f>C12*D12</f>
-        <v>6.2700000000000005</v>
+        <v>6.6</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ref="G12:G14" si="3">C12/B12</f>
         <v>1.0805500982318271E-2</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P12">
         <f>F57</f>
-        <v>95.190000000000012</v>
+        <v>95.320000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
+      <c r="A13" t="str">
+        <f t="shared" ref="A13:A15" si="4">A4</f>
+        <v>VGIA11</v>
+      </c>
+      <c r="B13" s="4">
         <v>10</v>
       </c>
       <c r="C13">
@@ -4172,12 +3223,12 @@
         <f>D4+I13</f>
         <v>67</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f>I13*B13</f>
         <v>120</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F15" si="4">C13*D13</f>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:F15" si="5">C13*D13</f>
         <v>11.39</v>
       </c>
       <c r="G13" s="2">
@@ -4187,19 +3238,20 @@
       <c r="I13">
         <v>12</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="O13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="4">
         <f>F67</f>
-        <v>113.19</v>
+        <v>113.32000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
+      <c r="A14" t="str">
+        <f t="shared" si="4"/>
+        <v>RZAG11</v>
+      </c>
+      <c r="B14" s="4">
         <v>10.28</v>
       </c>
       <c r="C14">
@@ -4209,12 +3261,12 @@
         <f>D5+I14</f>
         <v>60</v>
       </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E15" si="5">I14*B14</f>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E15" si="6">I14*B14</f>
         <v>308.39999999999998</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
+      <c r="F14" s="4">
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
       <c r="G14" s="2">
@@ -4224,19 +3276,20 @@
       <c r="I14">
         <v>30</v>
       </c>
-      <c r="O14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="O14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="4">
         <f>F77</f>
-        <v>131.49</v>
+        <v>131.62</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
+      <c r="A15" t="str">
+        <f t="shared" si="4"/>
+        <v>BIME11</v>
+      </c>
+      <c r="B15" s="4">
         <v>9.32</v>
       </c>
       <c r="C15">
@@ -4244,29 +3297,29 @@
       </c>
       <c r="D15">
         <f>D6+I15</f>
-        <v>31</v>
-      </c>
-      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="6"/>
+        <v>9.32</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
-        <v>4.03</v>
+        <v>4.16</v>
       </c>
       <c r="G15" s="2">
         <f>C15/B15</f>
         <v>1.3948497854077254E-2</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="4">
         <f>F87</f>
-        <v>149.15</v>
+        <v>149.28</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -4274,37 +3327,44 @@
         <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P16">
         <f>F97</f>
-        <v>168.45</v>
+        <v>168.57999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E17">
+      <c r="E17" s="4">
         <f>SUM(E12:E16)</f>
-        <v>733.8</v>
-      </c>
-      <c r="F17">
+        <v>773.66</v>
+      </c>
+      <c r="F17" s="4">
         <f>SUM(F12:F16)</f>
-        <v>30.090000000000003</v>
+        <v>30.55</v>
       </c>
       <c r="I17">
         <f>E17-F8</f>
-        <v>713.25</v>
+        <v>753.11</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17">
+        <f>F107</f>
+        <v>187.88000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -4313,10 +3373,10 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G21" t="s">
@@ -4327,29 +3387,30 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22">
+      <c r="A22" t="str">
+        <f>A12</f>
+        <v>MXRF11</v>
+      </c>
+      <c r="B22" s="4">
         <v>10.18</v>
       </c>
       <c r="C22">
         <v>0.11</v>
       </c>
       <c r="D22">
-        <f>D13+I22</f>
-        <v>97</v>
-      </c>
-      <c r="E22">
+        <f>D12+I22</f>
+        <v>90</v>
+      </c>
+      <c r="E22" s="4">
         <f>I22*B22</f>
         <v>305.39999999999998</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <f>C22*D22</f>
-        <v>10.67</v>
+        <v>9.9</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" ref="G22:G24" si="6">C22/B22</f>
+        <f t="shared" ref="G22:G24" si="7">C22/B22</f>
         <v>1.0805500982318271E-2</v>
       </c>
       <c r="I22">
@@ -4357,10 +3418,11 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A25" si="8">A13</f>
+        <v>VGIA11</v>
+      </c>
+      <c r="B23" s="4">
         <v>10</v>
       </c>
       <c r="C23">
@@ -4370,16 +3432,16 @@
         <f>D13+I23</f>
         <v>97</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <f>I23*B23</f>
         <v>300</v>
       </c>
-      <c r="F23">
-        <f t="shared" ref="F23:F25" si="7">C23*D23</f>
+      <c r="F23" s="4">
+        <f t="shared" ref="F23:F25" si="9">C23*D23</f>
         <v>16.490000000000002</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I23">
@@ -4387,10 +3449,11 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
+      <c r="A24" t="str">
+        <f t="shared" si="8"/>
+        <v>RZAG11</v>
+      </c>
+      <c r="B24" s="4">
         <v>10.28</v>
       </c>
       <c r="C24">
@@ -4400,36 +3463,37 @@
         <f>D14+I24</f>
         <v>80</v>
       </c>
-      <c r="E24">
-        <f t="shared" ref="E24:E25" si="8">I24*B24</f>
+      <c r="E24" s="4">
+        <f t="shared" ref="E24:E25" si="10">I24*B24</f>
         <v>205.6</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
+        <f t="shared" si="9"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="7"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="6"/>
         <v>1.3618677042801558E-2</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
+      <c r="A25" t="str">
+        <f t="shared" si="8"/>
+        <v>BIME11</v>
+      </c>
+      <c r="B25" s="4">
         <v>9.32</v>
       </c>
       <c r="C25">
@@ -4437,15 +3501,15 @@
       </c>
       <c r="D25">
         <f>D15+I25</f>
-        <v>61</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="10"/>
         <v>279.60000000000002</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="7"/>
-        <v>7.9300000000000006</v>
+      <c r="F25" s="4">
+        <f t="shared" si="9"/>
+        <v>8.06</v>
       </c>
       <c r="G25" s="2">
         <f>C25/B25</f>
@@ -4455,7 +3519,7 @@
         <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4468,8 +3532,8 @@
       <c r="I26" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="4" t="s">
-        <v>36</v>
+      <c r="O26" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="P26">
         <f>E8</f>
@@ -4481,33 +3545,33 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E27">
+      <c r="E27" s="4">
         <f>SUM(E22:E26)</f>
         <v>1090.5999999999999</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <f>SUM(F22:F26)</f>
-        <v>46.290000000000006</v>
+        <v>45.650000000000006</v>
       </c>
       <c r="I27">
         <f>E27-F17</f>
-        <v>1060.51</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>37</v>
+        <v>1060.05</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="P27">
         <f>E17</f>
-        <v>733.8</v>
+        <v>773.66</v>
       </c>
       <c r="Q27">
         <f>F17</f>
-        <v>30.090000000000003</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="O28" s="4" t="s">
-        <v>38</v>
+      <c r="O28" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="P28">
         <f>E27</f>
@@ -4515,12 +3579,12 @@
       </c>
       <c r="Q28">
         <f>F27</f>
-        <v>46.290000000000006</v>
+        <v>45.650000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="O29" s="4" t="s">
-        <v>39</v>
+      <c r="O29" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="P29">
         <f>E37</f>
@@ -4528,15 +3592,15 @@
       </c>
       <c r="Q29">
         <f>F37</f>
-        <v>61.39</v>
+        <v>61.52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="P30">
         <f>E47</f>
@@ -4544,14 +3608,14 @@
       </c>
       <c r="Q30">
         <f>F47</f>
-        <v>77.19</v>
+        <v>77.320000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -4560,10 +3624,10 @@
       <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G31" t="s">
@@ -4573,7 +3637,7 @@
         <v>12</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P31">
         <f>E57</f>
@@ -4581,14 +3645,15 @@
       </c>
       <c r="Q31">
         <f>F57</f>
-        <v>95.190000000000012</v>
+        <v>95.320000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32">
+      <c r="A32" t="str">
+        <f>A22</f>
+        <v>MXRF11</v>
+      </c>
+      <c r="B32" s="4">
         <v>10.18</v>
       </c>
       <c r="C32">
@@ -4598,23 +3663,23 @@
         <f>D23+I32</f>
         <v>127</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <f>I32*B32</f>
         <v>305.39999999999998</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <f>C32*D32</f>
         <v>13.97</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" ref="G32:G34" si="9">C32/B32</f>
+        <f t="shared" ref="G32:G34" si="11">C32/B32</f>
         <v>1.0805500982318271E-2</v>
       </c>
       <c r="I32">
         <v>30</v>
       </c>
-      <c r="O32" s="4" t="s">
-        <v>43</v>
+      <c r="O32" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="P32">
         <f>E67</f>
@@ -4622,14 +3687,15 @@
       </c>
       <c r="Q32">
         <f>F67</f>
-        <v>113.19</v>
+        <v>113.32000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:A35" si="12">A23</f>
+        <v>VGIA11</v>
+      </c>
+      <c r="B33" s="4">
         <v>10</v>
       </c>
       <c r="C33">
@@ -4639,23 +3705,23 @@
         <f>D23+I33</f>
         <v>127</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <f>I33*B33</f>
         <v>300</v>
       </c>
-      <c r="F33">
-        <f t="shared" ref="F33:F35" si="10">C33*D33</f>
+      <c r="F33" s="4">
+        <f t="shared" ref="F33:F35" si="13">C33*D33</f>
         <v>21.59</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I33">
         <v>30</v>
       </c>
-      <c r="O33" s="4" t="s">
-        <v>44</v>
+      <c r="O33" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="P33">
         <f>E77</f>
@@ -4663,14 +3729,15 @@
       </c>
       <c r="Q33">
         <f>F77</f>
-        <v>131.49</v>
+        <v>131.62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
+      <c r="A34" t="str">
+        <f t="shared" si="12"/>
+        <v>RZAG11</v>
+      </c>
+      <c r="B34" s="4">
         <v>10.28</v>
       </c>
       <c r="C34">
@@ -4680,23 +3747,23 @@
         <f>D24+I34</f>
         <v>100</v>
       </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E35" si="11">I34*B34</f>
+      <c r="E34" s="4">
+        <f t="shared" ref="E34:E35" si="14">I34*B34</f>
         <v>205.6</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="10"/>
+      <c r="F34" s="4">
+        <f t="shared" si="13"/>
         <v>14.000000000000002</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.3618677042801558E-2</v>
       </c>
       <c r="I34">
         <v>20</v>
       </c>
-      <c r="O34" s="4" t="s">
-        <v>45</v>
+      <c r="O34" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="P34">
         <f>E87</f>
@@ -4704,14 +3771,15 @@
       </c>
       <c r="Q34">
         <f>F87</f>
-        <v>149.15</v>
+        <v>149.28</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35">
+      <c r="A35" t="str">
+        <f t="shared" si="12"/>
+        <v>BIME11</v>
+      </c>
+      <c r="B35" s="4">
         <v>9.32</v>
       </c>
       <c r="C35">
@@ -4719,15 +3787,15 @@
       </c>
       <c r="D35">
         <f>D25+I35</f>
-        <v>91</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="14"/>
         <v>279.60000000000002</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="10"/>
-        <v>11.83</v>
+      <c r="F35" s="4">
+        <f t="shared" si="13"/>
+        <v>11.96</v>
       </c>
       <c r="G35" s="2">
         <f>C35/B35</f>
@@ -4737,7 +3805,7 @@
         <v>30</v>
       </c>
       <c r="O35" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P35">
         <f>E97</f>
@@ -4745,46 +3813,59 @@
       </c>
       <c r="Q35">
         <f>F97</f>
-        <v>168.45</v>
+        <v>168.57999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="I36" t="s">
         <v>13</v>
       </c>
+      <c r="O36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36">
+        <f>E107</f>
+        <v>1191.5999999999999</v>
+      </c>
+      <c r="Q36">
+        <f>F107</f>
+        <v>187.88000000000002</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E37">
+      <c r="E37" s="4">
         <f>SUM(E32:E36)</f>
         <v>1090.5999999999999</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <f>SUM(F32:F36)</f>
-        <v>61.39</v>
+        <v>61.52</v>
       </c>
       <c r="I37">
         <f>E37-F27</f>
-        <v>1044.31</v>
-      </c>
-      <c r="P37">
+        <v>1044.9499999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P38">
         <f>SUM(P25:P36)</f>
-        <v>11130.4</v>
-      </c>
-      <c r="Q37">
+        <v>12361.859999999999</v>
+      </c>
+      <c r="Q38">
         <f>SUM(Q25:Q36)</f>
-        <v>892.98</v>
+        <v>1081.5900000000001</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -4793,10 +3874,10 @@
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G41" t="s">
@@ -4807,10 +3888,11 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42">
+      <c r="A42" t="str">
+        <f>A32</f>
+        <v>MXRF11</v>
+      </c>
+      <c r="B42" s="4">
         <v>10.18</v>
       </c>
       <c r="C42">
@@ -4820,16 +3902,16 @@
         <f>D33+I42</f>
         <v>147</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <f>I42*B42</f>
         <v>203.6</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <f>C42*D42</f>
         <v>16.170000000000002</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" ref="G42:G44" si="12">C42/B42</f>
+        <f t="shared" ref="G42:G44" si="15">C42/B42</f>
         <v>1.0805500982318271E-2</v>
       </c>
       <c r="I42">
@@ -4837,10 +3919,11 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43">
+      <c r="A43" t="str">
+        <f t="shared" ref="A43:A45" si="16">A33</f>
+        <v>VGIA11</v>
+      </c>
+      <c r="B43" s="4">
         <v>10</v>
       </c>
       <c r="C43">
@@ -4850,16 +3933,16 @@
         <f>D33+I43</f>
         <v>167</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <f>I43*B43</f>
         <v>400</v>
       </c>
-      <c r="F43">
-        <f t="shared" ref="F43:F45" si="13">C43*D43</f>
+      <c r="F43" s="4">
+        <f t="shared" ref="F43:F45" si="17">C43*D43</f>
         <v>28.39</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I43">
@@ -4867,10 +3950,11 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44">
+      <c r="A44" t="str">
+        <f t="shared" si="16"/>
+        <v>RZAG11</v>
+      </c>
+      <c r="B44" s="4">
         <v>10.28</v>
       </c>
       <c r="C44">
@@ -4880,16 +3964,16 @@
         <f>D34+I44</f>
         <v>130</v>
       </c>
-      <c r="E44">
-        <f t="shared" ref="E44:E45" si="14">I44*B44</f>
+      <c r="E44" s="4">
+        <f t="shared" ref="E44:E45" si="18">I44*B44</f>
         <v>308.39999999999998</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="13"/>
+      <c r="F44" s="4">
+        <f t="shared" si="17"/>
         <v>18.200000000000003</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3618677042801558E-2</v>
       </c>
       <c r="I44">
@@ -4897,10 +3981,11 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45">
+      <c r="A45" t="str">
+        <f t="shared" si="16"/>
+        <v>BIME11</v>
+      </c>
+      <c r="B45" s="4">
         <v>9.32</v>
       </c>
       <c r="C45">
@@ -4908,15 +3993,15 @@
       </c>
       <c r="D45">
         <f>D35+I45</f>
-        <v>111</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="14"/>
+        <v>112</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="18"/>
         <v>186.4</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="13"/>
-        <v>14.43</v>
+      <c r="F45" s="4">
+        <f t="shared" si="17"/>
+        <v>14.56</v>
       </c>
       <c r="G45" s="2">
         <f>C45/B45</f>
@@ -4932,29 +4017,29 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E47">
+      <c r="E47" s="4">
         <f>SUM(E42:E46)</f>
         <v>1098.4000000000001</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <f>SUM(F42:F46)</f>
-        <v>77.19</v>
+        <v>77.320000000000007</v>
       </c>
       <c r="I47">
         <f>E47-F37</f>
-        <v>1037.01</v>
+        <v>1036.8800000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>0</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
@@ -4963,10 +4048,10 @@
       <c r="D51" t="s">
         <v>5</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G51" t="s">
@@ -4980,7 +4065,7 @@
       <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>10.18</v>
       </c>
       <c r="C52">
@@ -4990,16 +4075,16 @@
         <f>D43+I52</f>
         <v>187</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <f>I52*B52</f>
         <v>203.6</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <f>C52*D52</f>
         <v>20.57</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" ref="G52:G54" si="15">C52/B52</f>
+        <f t="shared" ref="G52:G54" si="19">C52/B52</f>
         <v>1.0805500982318271E-2</v>
       </c>
       <c r="I52">
@@ -5010,7 +4095,7 @@
       <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>10</v>
       </c>
       <c r="C53">
@@ -5020,16 +4105,16 @@
         <f>D43+I53</f>
         <v>207</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <f>I53*B53</f>
         <v>400</v>
       </c>
-      <c r="F53">
-        <f t="shared" ref="F53:F55" si="16">C53*D53</f>
+      <c r="F53" s="4">
+        <f t="shared" ref="F53:F55" si="20">C53*D53</f>
         <v>35.190000000000005</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I53">
@@ -5040,7 +4125,7 @@
       <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>10.28</v>
       </c>
       <c r="C54">
@@ -5050,16 +4135,16 @@
         <f>D44+I54</f>
         <v>160</v>
       </c>
-      <c r="E54">
-        <f t="shared" ref="E54:E55" si="17">I54*B54</f>
+      <c r="E54" s="4">
+        <f t="shared" ref="E54:E55" si="21">I54*B54</f>
         <v>308.39999999999998</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="16"/>
+      <c r="F54" s="4">
+        <f t="shared" si="20"/>
         <v>22.400000000000002</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.3618677042801558E-2</v>
       </c>
       <c r="I54">
@@ -5070,7 +4155,7 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>9.32</v>
       </c>
       <c r="C55">
@@ -5078,15 +4163,15 @@
       </c>
       <c r="D55">
         <f>D45+I55</f>
-        <v>131</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="17"/>
+        <v>132</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="21"/>
         <v>186.4</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="16"/>
-        <v>17.03</v>
+      <c r="F55" s="4">
+        <f t="shared" si="20"/>
+        <v>17.16</v>
       </c>
       <c r="G55" s="2">
         <f>C55/B55</f>
@@ -5102,29 +4187,29 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E57">
+      <c r="E57" s="4">
         <f>SUM(E52:E56)</f>
         <v>1098.4000000000001</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <f>SUM(F52:F56)</f>
-        <v>95.190000000000012</v>
+        <v>95.320000000000007</v>
       </c>
       <c r="I57">
         <f>E57-F47</f>
-        <v>1021.21</v>
+        <v>1021.08</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>0</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -5133,10 +4218,10 @@
       <c r="D61" t="s">
         <v>5</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G61" t="s">
@@ -5150,7 +4235,7 @@
       <c r="A62" t="s">
         <v>3</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>10.18</v>
       </c>
       <c r="C62">
@@ -5160,16 +4245,16 @@
         <f>D53+I62</f>
         <v>227</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <f>I62*B62</f>
         <v>203.6</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <f>C62*D62</f>
         <v>24.97</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" ref="G62:G64" si="18">C62/B62</f>
+        <f t="shared" ref="G62:G64" si="22">C62/B62</f>
         <v>1.0805500982318271E-2</v>
       </c>
       <c r="I62">
@@ -5180,7 +4265,7 @@
       <c r="A63" t="s">
         <v>4</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>10</v>
       </c>
       <c r="C63">
@@ -5190,16 +4275,16 @@
         <f>D53+I63</f>
         <v>247</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <f>I63*B63</f>
         <v>400</v>
       </c>
-      <c r="F63">
-        <f t="shared" ref="F63:F65" si="19">C63*D63</f>
+      <c r="F63" s="4">
+        <f t="shared" ref="F63:F65" si="23">C63*D63</f>
         <v>41.99</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I63">
@@ -5210,7 +4295,7 @@
       <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>10.28</v>
       </c>
       <c r="C64">
@@ -5220,16 +4305,16 @@
         <f>D54+I64</f>
         <v>190</v>
       </c>
-      <c r="E64">
-        <f t="shared" ref="E64:E65" si="20">I64*B64</f>
+      <c r="E64" s="4">
+        <f t="shared" ref="E64:E65" si="24">I64*B64</f>
         <v>308.39999999999998</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="19"/>
+      <c r="F64" s="4">
+        <f t="shared" si="23"/>
         <v>26.6</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.3618677042801558E-2</v>
       </c>
       <c r="I64">
@@ -5240,7 +4325,7 @@
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>9.32</v>
       </c>
       <c r="C65">
@@ -5248,15 +4333,15 @@
       </c>
       <c r="D65">
         <f>D55+I65</f>
-        <v>151</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="20"/>
+        <v>152</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="24"/>
         <v>186.4</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="19"/>
-        <v>19.63</v>
+      <c r="F65" s="4">
+        <f t="shared" si="23"/>
+        <v>19.760000000000002</v>
       </c>
       <c r="G65" s="2">
         <f>C65/B65</f>
@@ -5272,29 +4357,29 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E67">
+      <c r="E67" s="4">
         <f>SUM(E62:E66)</f>
         <v>1098.4000000000001</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <f>SUM(F62:F66)</f>
-        <v>113.19</v>
+        <v>113.32000000000001</v>
       </c>
       <c r="I67">
         <f>E67-F57</f>
-        <v>1003.21</v>
+        <v>1003.08</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>0</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C71" t="s">
@@ -5303,10 +4388,10 @@
       <c r="D71" t="s">
         <v>5</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G71" t="s">
@@ -5320,7 +4405,7 @@
       <c r="A72" t="s">
         <v>3</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>10.18</v>
       </c>
       <c r="C72">
@@ -5330,16 +4415,16 @@
         <f>D63+I72</f>
         <v>267</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="4">
         <f>I72*B72</f>
         <v>203.6</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="4">
         <f>C72*D72</f>
         <v>29.37</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" ref="G72:G74" si="21">C72/B72</f>
+        <f t="shared" ref="G72:G74" si="25">C72/B72</f>
         <v>1.0805500982318271E-2</v>
       </c>
       <c r="I72">
@@ -5350,7 +4435,7 @@
       <c r="A73" t="s">
         <v>4</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>10</v>
       </c>
       <c r="C73">
@@ -5360,16 +4445,16 @@
         <f>D63+I73</f>
         <v>277</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="4">
         <f>I73*B73</f>
         <v>300</v>
       </c>
-      <c r="F73">
-        <f t="shared" ref="F73:F75" si="22">C73*D73</f>
+      <c r="F73" s="4">
+        <f t="shared" ref="F73:F75" si="26">C73*D73</f>
         <v>47.09</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I73">
@@ -5380,7 +4465,7 @@
       <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>10.28</v>
       </c>
       <c r="C74">
@@ -5390,16 +4475,16 @@
         <f>D64+I74</f>
         <v>225</v>
       </c>
-      <c r="E74">
-        <f t="shared" ref="E74:E75" si="23">I74*B74</f>
+      <c r="E74" s="4">
+        <f t="shared" ref="E74:E75" si="27">I74*B74</f>
         <v>359.79999999999995</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="22"/>
+      <c r="F74" s="4">
+        <f t="shared" si="26"/>
         <v>31.500000000000004</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.3618677042801558E-2</v>
       </c>
       <c r="I74">
@@ -5410,7 +4495,7 @@
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>9.32</v>
       </c>
       <c r="C75">
@@ -5418,15 +4503,15 @@
       </c>
       <c r="D75">
         <f>D65+I75</f>
-        <v>181</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="23"/>
+        <v>182</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="27"/>
         <v>279.60000000000002</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="22"/>
-        <v>23.53</v>
+      <c r="F75" s="4">
+        <f t="shared" si="26"/>
+        <v>23.66</v>
       </c>
       <c r="G75" s="2">
         <f>C75/B75</f>
@@ -5442,29 +4527,29 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E77">
+      <c r="E77" s="4">
         <f>SUM(E72:E76)</f>
         <v>1143</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="4">
         <f>SUM(F72:F76)</f>
-        <v>131.49</v>
+        <v>131.62</v>
       </c>
       <c r="I77">
         <f>E77-F67</f>
-        <v>1029.81</v>
+        <v>1029.68</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C81" t="s">
@@ -5473,10 +4558,10 @@
       <c r="D81" t="s">
         <v>5</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G81" t="s">
@@ -5490,7 +4575,7 @@
       <c r="A82" t="s">
         <v>3</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>10.18</v>
       </c>
       <c r="C82">
@@ -5500,16 +4585,16 @@
         <f>D73+I82</f>
         <v>297</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="4">
         <f>I82*B82</f>
         <v>203.6</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="4">
         <f>C82*D82</f>
         <v>32.67</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" ref="G82:G84" si="24">C82/B82</f>
+        <f t="shared" ref="G82:G84" si="28">C82/B82</f>
         <v>1.0805500982318271E-2</v>
       </c>
       <c r="I82">
@@ -5520,7 +4605,7 @@
       <c r="A83" t="s">
         <v>4</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>10</v>
       </c>
       <c r="C83">
@@ -5530,16 +4615,16 @@
         <f>D73+I83</f>
         <v>317</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <f>I83*B83</f>
         <v>400</v>
       </c>
-      <c r="F83">
-        <f t="shared" ref="F83:F85" si="25">C83*D83</f>
+      <c r="F83" s="4">
+        <f t="shared" ref="F83:F85" si="29">C83*D83</f>
         <v>53.89</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I83">
@@ -5550,7 +4635,7 @@
       <c r="A84" t="s">
         <v>10</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>10.28</v>
       </c>
       <c r="C84">
@@ -5560,16 +4645,16 @@
         <f>D74+I84</f>
         <v>253</v>
       </c>
-      <c r="E84">
-        <f t="shared" ref="E84:E85" si="26">I84*B84</f>
+      <c r="E84" s="4">
+        <f t="shared" ref="E84:E85" si="30">I84*B84</f>
         <v>287.83999999999997</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="25"/>
+      <c r="F84" s="4">
+        <f t="shared" si="29"/>
         <v>35.42</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.3618677042801558E-2</v>
       </c>
       <c r="I84">
@@ -5580,7 +4665,7 @@
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>9.32</v>
       </c>
       <c r="C85">
@@ -5588,15 +4673,15 @@
       </c>
       <c r="D85">
         <f>D75+I85</f>
-        <v>209</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="26"/>
+        <v>210</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="30"/>
         <v>260.96000000000004</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="25"/>
-        <v>27.17</v>
+      <c r="F85" s="4">
+        <f t="shared" si="29"/>
+        <v>27.3</v>
       </c>
       <c r="G85" s="2">
         <f>C85/B85</f>
@@ -5612,29 +4697,29 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E87">
+      <c r="E87" s="4">
         <f>SUM(E82:E86)</f>
         <v>1152.4000000000001</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="4">
         <f>SUM(F82:F86)</f>
-        <v>149.15</v>
+        <v>149.28</v>
       </c>
       <c r="I87">
         <f>E87-F77</f>
-        <v>1020.9100000000001</v>
+        <v>1020.7800000000001</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>0</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C91" t="s">
@@ -5643,10 +4728,10 @@
       <c r="D91" t="s">
         <v>5</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G91" t="s">
@@ -5660,7 +4745,7 @@
       <c r="A92" t="s">
         <v>3</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>10.18</v>
       </c>
       <c r="C92">
@@ -5670,16 +4755,16 @@
         <f>D83+I92</f>
         <v>337</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="4">
         <f>I92*B92</f>
         <v>203.6</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="4">
         <f>C92*D92</f>
         <v>37.07</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" ref="G92:G94" si="27">C92/B92</f>
+        <f t="shared" ref="G92:G94" si="31">C92/B92</f>
         <v>1.0805500982318271E-2</v>
       </c>
       <c r="I92">
@@ -5690,7 +4775,7 @@
       <c r="A93" t="s">
         <v>4</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>10</v>
       </c>
       <c r="C93">
@@ -5700,16 +4785,16 @@
         <f>D83+I93</f>
         <v>357</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="4">
         <f>I93*B93</f>
         <v>400</v>
       </c>
-      <c r="F93">
-        <f t="shared" ref="F93:F95" si="28">C93*D93</f>
+      <c r="F93" s="4">
+        <f t="shared" ref="F93:F95" si="32">C93*D93</f>
         <v>60.690000000000005</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I93">
@@ -5720,7 +4805,7 @@
       <c r="A94" t="s">
         <v>10</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>10.28</v>
       </c>
       <c r="C94">
@@ -5730,16 +4815,16 @@
         <f>D84+I94</f>
         <v>283</v>
       </c>
-      <c r="E94">
-        <f t="shared" ref="E94:E95" si="29">I94*B94</f>
+      <c r="E94" s="4">
+        <f t="shared" ref="E94:E95" si="33">I94*B94</f>
         <v>308.39999999999998</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="28"/>
+      <c r="F94" s="4">
+        <f t="shared" si="32"/>
         <v>39.620000000000005</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.3618677042801558E-2</v>
       </c>
       <c r="I94">
@@ -5750,7 +4835,7 @@
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>9.32</v>
       </c>
       <c r="C95">
@@ -5758,15 +4843,15 @@
       </c>
       <c r="D95">
         <f>D85+I95</f>
-        <v>239</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="29"/>
+        <v>240</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="33"/>
         <v>279.60000000000002</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="28"/>
-        <v>31.07</v>
+      <c r="F95" s="4">
+        <f t="shared" si="32"/>
+        <v>31.200000000000003</v>
       </c>
       <c r="G95" s="2">
         <f>C95/B95</f>
@@ -5781,24 +4866,194 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E97" s="4">
         <f>SUM(E92:E96)</f>
         <v>1191.5999999999999</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="4">
         <f>SUM(F92:F96)</f>
-        <v>168.45</v>
+        <v>168.57999999999998</v>
       </c>
       <c r="I97">
         <f>E97-F87</f>
-        <v>1042.4499999999998</v>
+        <v>1042.32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="4">
+        <v>10.18</v>
+      </c>
+      <c r="C102">
+        <v>0.11</v>
+      </c>
+      <c r="D102">
+        <f>D93+I102</f>
+        <v>377</v>
+      </c>
+      <c r="E102" s="4">
+        <f>I102*B102</f>
+        <v>203.6</v>
+      </c>
+      <c r="F102" s="4">
+        <f>C102*D102</f>
+        <v>41.47</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" ref="G102:G104" si="34">C102/B102</f>
+        <v>1.0805500982318271E-2</v>
+      </c>
+      <c r="I102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="4">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>0.17</v>
+      </c>
+      <c r="D103">
+        <f>D93+I103</f>
+        <v>397</v>
+      </c>
+      <c r="E103" s="4">
+        <f>I103*B103</f>
+        <v>400</v>
+      </c>
+      <c r="F103" s="4">
+        <f t="shared" ref="F103:F105" si="35">C103*D103</f>
+        <v>67.490000000000009</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="34"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="4">
+        <v>10.28</v>
+      </c>
+      <c r="C104">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D104">
+        <f>D94+I104</f>
+        <v>313</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" ref="E104:E105" si="36">I104*B104</f>
+        <v>308.39999999999998</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" si="35"/>
+        <v>43.820000000000007</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="34"/>
+        <v>1.3618677042801558E-2</v>
+      </c>
+      <c r="I104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="4">
+        <v>9.32</v>
+      </c>
+      <c r="C105">
+        <v>0.13</v>
+      </c>
+      <c r="D105">
+        <f>D95+I105</f>
+        <v>270</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="36"/>
+        <v>279.60000000000002</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" si="35"/>
+        <v>35.1</v>
+      </c>
+      <c r="G105" s="2">
+        <f>C105/B105</f>
+        <v>1.3948497854077254E-2</v>
+      </c>
+      <c r="I105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E107" s="4">
+        <f>SUM(E102:E106)</f>
+        <v>1191.5999999999999</v>
+      </c>
+      <c r="F107" s="4">
+        <f>SUM(F102:F106)</f>
+        <v>187.88000000000002</v>
+      </c>
+      <c r="I107">
+        <f>E107-F97</f>
+        <v>1023.02</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5812,7 +5067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C15">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5826,7 +5081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C25">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5840,7 +5095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5854,7 +5109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C45">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5868,7 +5123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5882,7 +5137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C65">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5896,7 +5151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C75">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5910,7 +5165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C85">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5924,7 +5179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C95">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5933,6 +5188,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0CA4D930-E9EF-46DB-9B5C-41FBCA70F9F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102:C105">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{05BF6FDF-5FF0-4BF5-AFFD-DD50BFBA164B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6053,93 +5322,19 @@
           </x14:cfRule>
           <xm:sqref>C92:C95</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{05BF6FDF-5FF0-4BF5-AFFD-DD50BFBA164B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C102:C105</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8262681-6607-411A-8948-F69C4F89E884}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <f>Planilha2!F8</f>
-        <v>20.550000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="e">
-        <f>Planilha2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="e">
-        <f>Planilha2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="e">
-        <f>Planilha2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="e">
-        <f>Planilha2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="e">
-        <f>Planilha2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="e">
-        <f>Planilha2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>